--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_4.9E-09_15 s_724 TPD_output Acetic acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_4.9E-09_15 s_724 TPD_output Acetic acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4642 +417,4222 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>97.8</v>
+        <v>110.3</v>
       </c>
       <c r="B2">
-        <v>34593.81250891562</v>
+        <v>74105.6623187551</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3026.635144732454</v>
       </c>
       <c r="D2">
-        <v>6059.450504836255</v>
+        <v>89366.6527604037</v>
       </c>
       <c r="E2">
-        <v>572.2442502482618</v>
+        <v>3348.998247040302</v>
       </c>
       <c r="F2">
-        <v>689.1938924713384</v>
+        <v>1274.543429113283</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>97.8</v>
+        <v>112.7</v>
       </c>
       <c r="B3">
-        <v>10493.81250891561</v>
+        <v>74364.2785230405</v>
       </c>
       <c r="C3">
-        <v>3890</v>
+        <v>2731.115579532541</v>
       </c>
       <c r="D3">
-        <v>8389.450504836255</v>
+        <v>85249.95481948958</v>
       </c>
       <c r="E3">
-        <v>1152.244250248262</v>
+        <v>2663.318995136447</v>
       </c>
       <c r="F3">
-        <v>999.1938924713384</v>
+        <v>813.619874317277</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>97.8</v>
+        <v>115.2</v>
       </c>
       <c r="B4">
-        <v>9793.812508915615</v>
+        <v>63733.67040250431</v>
       </c>
       <c r="C4">
-        <v>4290</v>
+        <v>4256.616032449287</v>
       </c>
       <c r="D4">
-        <v>8459.450504836255</v>
+        <v>76572.14446437069</v>
       </c>
       <c r="E4">
-        <v>1552.244250248262</v>
+        <v>2521.98644106993</v>
       </c>
       <c r="F4">
-        <v>519.1938924713384</v>
+        <v>1093.491171404769</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>97.8</v>
+        <v>117.7</v>
       </c>
       <c r="B5">
-        <v>10893.81250891561</v>
+        <v>62503.06228196825</v>
       </c>
       <c r="C5">
-        <v>4220</v>
+        <v>3902.116485366032</v>
       </c>
       <c r="D5">
-        <v>9039.450504836255</v>
+        <v>70854.33410925182</v>
       </c>
       <c r="E5">
-        <v>1892.244250248262</v>
+        <v>2230.653887003413</v>
       </c>
       <c r="F5">
-        <v>1159.193892471338</v>
+        <v>1473.362468492263</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>97.8</v>
+        <v>120.2</v>
       </c>
       <c r="B6">
-        <v>17193.81250891561</v>
+        <v>53372.45416143207</v>
       </c>
       <c r="C6">
-        <v>5180</v>
+        <v>3807.616938282777</v>
       </c>
       <c r="D6">
-        <v>9709.450504836255</v>
+        <v>63766.52375413296</v>
       </c>
       <c r="E6">
-        <v>2042.244250248262</v>
+        <v>2729.321332936889</v>
       </c>
       <c r="F6">
-        <v>1219.193892471338</v>
+        <v>1303.233765579756</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>97.8</v>
+        <v>122.7</v>
       </c>
       <c r="B7">
-        <v>9493.812508915615</v>
+        <v>36341.846040896</v>
       </c>
       <c r="C7">
-        <v>5640</v>
+        <v>3423.117391199523</v>
       </c>
       <c r="D7">
-        <v>9259.450504836255</v>
+        <v>56678.71339901409</v>
       </c>
       <c r="E7">
-        <v>1872.244250248262</v>
+        <v>1677.988778870375</v>
       </c>
       <c r="F7">
-        <v>1619.193892471338</v>
+        <v>1003.10506266725</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>97.8</v>
+        <v>125.5</v>
       </c>
       <c r="B8">
-        <v>19593.81250891561</v>
+        <v>35943.56494589545</v>
       </c>
       <c r="C8">
-        <v>4690</v>
+        <v>1881.677898466289</v>
       </c>
       <c r="D8">
-        <v>9449.450504836255</v>
+        <v>51007.56580128094</v>
       </c>
       <c r="E8">
-        <v>3202.244250248262</v>
+        <v>2249.696318315874</v>
       </c>
       <c r="F8">
-        <v>1089.193892471338</v>
+        <v>715.3609154052415</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>97.8</v>
+        <v>127.9</v>
       </c>
       <c r="B9">
-        <v>15693.81250891561</v>
+        <v>23502.18115018084</v>
       </c>
       <c r="C9">
-        <v>6240</v>
+        <v>1036.15833326636</v>
       </c>
       <c r="D9">
-        <v>10609.45050483626</v>
+        <v>42110.86786036682</v>
       </c>
       <c r="E9">
-        <v>1722.244250248262</v>
+        <v>2694.017066412019</v>
       </c>
       <c r="F9">
-        <v>1079.193892471338</v>
+        <v>564.4373606092352</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>97.8</v>
+        <v>130.3</v>
       </c>
       <c r="B10">
-        <v>8593.812508915615</v>
+        <v>14760.79735446611</v>
       </c>
       <c r="C10">
-        <v>7430</v>
+        <v>1510.638768066432</v>
       </c>
       <c r="D10">
-        <v>10849.45050483626</v>
+        <v>39014.16991945272</v>
       </c>
       <c r="E10">
-        <v>2462.244250248262</v>
+        <v>1648.337814508158</v>
       </c>
       <c r="F10">
-        <v>609.1938924713384</v>
+        <v>843.513805813227</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>97.7</v>
+        <v>132.9</v>
       </c>
       <c r="B11">
-        <v>10300</v>
+        <v>16940.96490910859</v>
       </c>
       <c r="C11">
-        <v>8201.356163449034</v>
+        <v>587.1592390998521</v>
       </c>
       <c r="D11">
-        <v>9485.48668765846</v>
+        <v>35925.24715012907</v>
       </c>
       <c r="E11">
-        <v>2878.798817130139</v>
+        <v>2231.351958278978</v>
       </c>
       <c r="F11">
-        <v>888.5427717569227</v>
+        <v>1064.17995478422</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>97.7</v>
+        <v>135.2</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>14488.80543821532</v>
       </c>
       <c r="C12">
-        <v>8171.356163449034</v>
+        <v>1290.619655783266</v>
       </c>
       <c r="D12">
-        <v>10405.48668765846</v>
+        <v>26659.66162341971</v>
       </c>
       <c r="E12">
-        <v>3528.798817130139</v>
+        <v>2321.326008537786</v>
       </c>
       <c r="F12">
-        <v>668.5427717569227</v>
+        <v>802.4615481047149</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>97.8</v>
+        <v>137.1</v>
       </c>
       <c r="B13">
-        <v>10193.81250891561</v>
+        <v>15093.54326660788</v>
       </c>
       <c r="C13">
-        <v>9510</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>17619.45050483626</v>
+        <v>23538.52575352937</v>
       </c>
       <c r="E13">
-        <v>3212.244250248262</v>
+        <v>1953.913267447231</v>
       </c>
       <c r="F13">
-        <v>699.1938924713384</v>
+        <v>737.5637338912082</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>97.8</v>
+        <v>139.6</v>
       </c>
       <c r="B14">
-        <v>8093.812508915615</v>
+        <v>12362.93514607169</v>
       </c>
       <c r="C14">
-        <v>9960</v>
+        <v>815.5004529167454</v>
       </c>
       <c r="D14">
-        <v>35139.45050483626</v>
+        <v>19730.7153984105</v>
       </c>
       <c r="E14">
-        <v>4862.244250248262</v>
+        <v>2362.580713380714</v>
       </c>
       <c r="F14">
-        <v>2109.193892471339</v>
+        <v>787.4350309787023</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>98.09999999999999</v>
+        <v>141.8</v>
       </c>
       <c r="B15">
-        <v>31575.25003566234</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>17395.93150965288</v>
+        <v>1557.940851483485</v>
       </c>
       <c r="D15">
-        <v>55561.34195636965</v>
+        <v>17146.24228590587</v>
       </c>
       <c r="E15">
-        <v>5152.580549602634</v>
+        <v>1598.208065802174</v>
       </c>
       <c r="F15">
-        <v>3361.147254614587</v>
+        <v>1124.921772415697</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>98.7</v>
+        <v>144</v>
       </c>
       <c r="B16">
-        <v>42838.1250891558</v>
+        <v>7737.064853928183</v>
       </c>
       <c r="C16">
-        <v>27177.79452895866</v>
+        <v>1850.381250050226</v>
       </c>
       <c r="D16">
-        <v>52225.12485943647</v>
+        <v>15341.76917340128</v>
       </c>
       <c r="E16">
-        <v>5003.253148311374</v>
+        <v>2743.835418223642</v>
       </c>
       <c r="F16">
-        <v>3045.053978901085</v>
+        <v>1832.408513852688</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>99.59999999999999</v>
+        <v>146.2</v>
       </c>
       <c r="B17">
-        <v>51582.43766939599</v>
+        <v>9374.129707856373</v>
       </c>
       <c r="C17">
-        <v>19885.58905791732</v>
+        <v>2222.821648616966</v>
       </c>
       <c r="D17">
-        <v>53290.7992140367</v>
+        <v>12807.29606089667</v>
       </c>
       <c r="E17">
-        <v>4474.262046374483</v>
+        <v>3009.462770645106</v>
       </c>
       <c r="F17">
-        <v>1720.914065330835</v>
+        <v>2189.895255289683</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>101</v>
+        <v>148.6</v>
       </c>
       <c r="B18">
-        <v>49895.81279421414</v>
+        <v>11032.74591214165</v>
       </c>
       <c r="C18">
-        <v>13686.60276963079</v>
+        <v>4737.302083417038</v>
       </c>
       <c r="D18">
-        <v>81116.29265452593</v>
+        <v>10140.59811998253</v>
       </c>
       <c r="E18">
-        <v>7262.498110028209</v>
+        <v>3723.783518741244</v>
       </c>
       <c r="F18">
-        <v>1450.029755332666</v>
+        <v>2728.971700493678</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>103.1</v>
+        <v>150.8</v>
       </c>
       <c r="B19">
-        <v>62865.87548144125</v>
+        <v>12669.81076606995</v>
       </c>
       <c r="C19">
-        <v>11848.123337201</v>
+        <v>5689.742481983778</v>
       </c>
       <c r="D19">
-        <v>127449.5328152598</v>
+        <v>10466.12500747792</v>
       </c>
       <c r="E19">
-        <v>7324.852205508807</v>
+        <v>3299.410871162707</v>
       </c>
       <c r="F19">
-        <v>1403.703290335412</v>
+        <v>4766.458441930673</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>105.2</v>
+        <v>153</v>
       </c>
       <c r="B20">
-        <v>75635.93816866846</v>
+        <v>17106.87561999814</v>
       </c>
       <c r="C20">
-        <v>11509.6439047712</v>
+        <v>5842.182880550519</v>
       </c>
       <c r="D20">
-        <v>140662.7729759936</v>
+        <v>12201.65189497333</v>
       </c>
       <c r="E20">
-        <v>8177.206300989397</v>
+        <v>4615.038223584172</v>
       </c>
       <c r="F20">
-        <v>1307.376825338159</v>
+        <v>8233.945183367663</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>107.9</v>
+        <v>155.4</v>
       </c>
       <c r="B21">
-        <v>92768.87590938903</v>
+        <v>18365.49182428342</v>
       </c>
       <c r="C21">
-        <v>13673.02749164719</v>
+        <v>10826.66331535059</v>
       </c>
       <c r="D21">
-        <v>140719.7960397943</v>
+        <v>14024.95395405919</v>
       </c>
       <c r="E21">
-        <v>7470.232995178731</v>
+        <v>5359.358971680316</v>
       </c>
       <c r="F21">
-        <v>1304.957084627404</v>
+        <v>12433.02162857166</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>110.3</v>
+        <v>157.3</v>
       </c>
       <c r="B22">
-        <v>100920.3761233629</v>
+        <v>25370.22965267597</v>
       </c>
       <c r="C22">
-        <v>14680.47956887028</v>
+        <v>12376.04365956733</v>
       </c>
       <c r="D22">
-        <v>135824.9276520616</v>
+        <v>14313.81808416886</v>
       </c>
       <c r="E22">
-        <v>6672.923390013701</v>
+        <v>7371.946230589761</v>
       </c>
       <c r="F22">
-        <v>1680.5839817734</v>
+        <v>17498.12381435815</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>112.7</v>
+        <v>159.8</v>
       </c>
       <c r="B23">
-        <v>100771.8763373368</v>
+        <v>24939.62153213991</v>
       </c>
       <c r="C23">
-        <v>14327.93164609337</v>
+        <v>16721.54411248407</v>
       </c>
       <c r="D23">
-        <v>131110.0592643288</v>
+        <v>15996.00772904999</v>
       </c>
       <c r="E23">
-        <v>5965.613784848662</v>
+        <v>7030.613676523244</v>
       </c>
       <c r="F23">
-        <v>1216.210878919396</v>
+        <v>18497.99511144565</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>115.2</v>
+        <v>162.1</v>
       </c>
       <c r="B24">
-        <v>89717.18906022626</v>
+        <v>34987.46206124664</v>
       </c>
       <c r="C24">
-        <v>15794.02755986743</v>
+        <v>18685.00452916748</v>
       </c>
       <c r="D24">
-        <v>121809.1546937739</v>
+        <v>16290.42220234062</v>
       </c>
       <c r="E24">
-        <v>5801.749612801747</v>
+        <v>7860.587726782045</v>
       </c>
       <c r="F24">
-        <v>1492.488896779809</v>
+        <v>15086.27670476614</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>117.7</v>
+        <v>164.3</v>
       </c>
       <c r="B25">
-        <v>88062.5017831157</v>
+        <v>37224.52691517482</v>
       </c>
       <c r="C25">
-        <v>15380.12347364148</v>
+        <v>18307.44492773422</v>
       </c>
       <c r="D25">
-        <v>115468.2501232189</v>
+        <v>11215.94908983602</v>
       </c>
       <c r="E25">
-        <v>5487.885440754835</v>
+        <v>5266.21507920351</v>
       </c>
       <c r="F25">
-        <v>1868.766914640221</v>
+        <v>8213.763446203133</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>120.2</v>
+        <v>166.8</v>
       </c>
       <c r="B26">
-        <v>78507.81450600518</v>
+        <v>26093.91879463876</v>
       </c>
       <c r="C26">
-        <v>15226.21938741553</v>
+        <v>16862.94538065097</v>
       </c>
       <c r="D26">
-        <v>107757.345552664</v>
+        <v>9598.13873471714</v>
       </c>
       <c r="E26">
-        <v>5964.02126870792</v>
+        <v>5324.882525136993</v>
       </c>
       <c r="F26">
-        <v>1695.044932500634</v>
+        <v>6013.634743290627</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>122.7</v>
+        <v>168.8</v>
       </c>
       <c r="B27">
-        <v>61053.12722889462</v>
+        <v>34409.43229820986</v>
       </c>
       <c r="C27">
-        <v>14782.31530118959</v>
+        <v>15513.34574298436</v>
       </c>
       <c r="D27">
-        <v>100046.4409821091</v>
+        <v>7665.890450622042</v>
       </c>
       <c r="E27">
-        <v>4890.157096661009</v>
+        <v>4711.816481883774</v>
       </c>
       <c r="F27">
-        <v>1391.322950361046</v>
+        <v>5169.53178096062</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>125.5</v>
+        <v>171.4</v>
       </c>
       <c r="B28">
-        <v>60179.8774785308</v>
+        <v>27689.59985285222</v>
       </c>
       <c r="C28">
-        <v>13174.34272461653</v>
+        <v>16899.86621401778</v>
       </c>
       <c r="D28">
-        <v>93677.42786308752</v>
+        <v>5676.967681298411</v>
       </c>
       <c r="E28">
-        <v>5436.629223968465</v>
+        <v>4084.830625654595</v>
       </c>
       <c r="F28">
-        <v>1099.554330364708</v>
+        <v>5030.197929931614</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>127.9</v>
+        <v>173.6</v>
       </c>
       <c r="B29">
-        <v>47331.37769250475</v>
+        <v>24026.66470678041</v>
       </c>
       <c r="C29">
-        <v>12271.79480183963</v>
+        <v>16582.30661258452</v>
       </c>
       <c r="D29">
-        <v>84182.55947535479</v>
+        <v>4602.494568793802</v>
       </c>
       <c r="E29">
-        <v>5859.319618803431</v>
+        <v>3810.457978076059</v>
       </c>
       <c r="F29">
-        <v>945.1812275107038</v>
+        <v>4657.684671368608</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>130.3</v>
+        <v>175.9</v>
       </c>
       <c r="B30">
-        <v>38182.87790647858</v>
+        <v>17674.50523588726</v>
       </c>
       <c r="C30">
-        <v>12689.2468790627</v>
+        <v>16365.76702926792</v>
       </c>
       <c r="D30">
-        <v>80487.69108762202</v>
+        <v>3776.90904208443</v>
       </c>
       <c r="E30">
-        <v>4792.010013638393</v>
+        <v>4940.432028334866</v>
       </c>
       <c r="F30">
-        <v>1220.8081246567</v>
+        <v>4675.966264689102</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>132.9</v>
+        <v>178.2</v>
       </c>
       <c r="B31">
-        <v>39922.00313828365</v>
+        <v>18222.34576499398</v>
       </c>
       <c r="C31">
-        <v>11703.98662938773</v>
+        <v>19169.22744595134</v>
       </c>
       <c r="D31">
-        <v>76750.75033424491</v>
+        <v>2931.323515375072</v>
       </c>
       <c r="E31">
-        <v>5351.591274709604</v>
+        <v>3570.406078593668</v>
       </c>
       <c r="F31">
-        <v>1437.737263231529</v>
+        <v>3954.247858009595</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>135.2</v>
+        <v>180.5</v>
       </c>
       <c r="B32">
-        <v>37079.69084334187</v>
+        <v>25770.18629410071</v>
       </c>
       <c r="C32">
-        <v>12352.79487005987</v>
+        <v>19242.68786263475</v>
       </c>
       <c r="D32">
-        <v>66911.91812933436</v>
+        <v>2985.7379886657</v>
       </c>
       <c r="E32">
-        <v>5420.836236426444</v>
+        <v>4390.380128852469</v>
       </c>
       <c r="F32">
-        <v>1172.713039663107</v>
+        <v>3822.529451330089</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>137.1</v>
+        <v>183.1</v>
       </c>
       <c r="B33">
-        <v>37362.12851273787</v>
+        <v>31850.35384874319</v>
       </c>
       <c r="C33">
-        <v>11017.02776452814</v>
+        <v>19349.20833366817</v>
       </c>
       <c r="D33">
-        <v>63317.23065571261</v>
+        <v>3466.815219342068</v>
       </c>
       <c r="E33">
-        <v>5036.299465670792</v>
+        <v>4253.394272623296</v>
       </c>
       <c r="F33">
-        <v>1105.084333237021</v>
+        <v>3813.195600301081</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>139.6</v>
+        <v>185.4</v>
       </c>
       <c r="B34">
-        <v>34207.44123562732</v>
+        <v>24098.19437784993</v>
       </c>
       <c r="C34">
-        <v>11773.1236783022</v>
+        <v>21242.66875035156</v>
       </c>
       <c r="D34">
-        <v>58886.32608515765</v>
+        <v>1141.229692632711</v>
       </c>
       <c r="E34">
-        <v>5422.435293623877</v>
+        <v>4543.368322882097</v>
       </c>
       <c r="F34">
-        <v>1151.362351097434</v>
+        <v>4091.477193621574</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>141.8</v>
+        <v>187.7</v>
       </c>
       <c r="B35">
-        <v>21471.31643177015</v>
+        <v>30946.03490695665</v>
       </c>
       <c r="C35">
-        <v>12463.28808242336</v>
+        <v>20446.12916703498</v>
       </c>
       <c r="D35">
-        <v>55753.53006306929</v>
+        <v>1585.644165923339</v>
       </c>
       <c r="E35">
-        <v>4638.234822222592</v>
+        <v>4573.342373140898</v>
       </c>
       <c r="F35">
-        <v>1485.687006814597</v>
+        <v>4349.758786942068</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="B36">
-        <v>28835.19162791287</v>
+        <v>32293.8754360635</v>
       </c>
       <c r="C36">
-        <v>12703.45248654454</v>
+        <v>20599.58958371839</v>
       </c>
       <c r="D36">
-        <v>53400.73404098094</v>
+        <v>1600.058639213981</v>
       </c>
       <c r="E36">
-        <v>5764.034350821309</v>
+        <v>4373.316423399699</v>
       </c>
       <c r="F36">
-        <v>2190.011662531759</v>
+        <v>4038.040380262561</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>146.2</v>
+        <v>192.6</v>
       </c>
       <c r="B37">
-        <v>30099.0668240556</v>
+        <v>39974.04299070586</v>
       </c>
       <c r="C37">
-        <v>13023.6168906657</v>
+        <v>22916.11005475181</v>
       </c>
       <c r="D37">
-        <v>50317.93801889262</v>
+        <v>2191.13586989035</v>
       </c>
       <c r="E37">
-        <v>6009.833879420025</v>
+        <v>3726.33056717052</v>
       </c>
       <c r="F37">
-        <v>2544.336318248924</v>
+        <v>4368.706529233554</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>148.6</v>
+        <v>194.5</v>
       </c>
       <c r="B38">
-        <v>31350.56703802943</v>
+        <v>49378.78081909842</v>
       </c>
       <c r="C38">
-        <v>15481.0689678888</v>
+        <v>22475.49039896853</v>
       </c>
       <c r="D38">
-        <v>47053.06963115985</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>6702.524274254994</v>
+        <v>5128.917826079973</v>
       </c>
       <c r="F38">
-        <v>3079.963215394919</v>
+        <v>4243.808715020049</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>150.8</v>
+        <v>197.2</v>
       </c>
       <c r="B39">
-        <v>32614.44223417215</v>
+        <v>53869.72404891944</v>
       </c>
       <c r="C39">
-        <v>16381.23337200996</v>
+        <v>22973.03088811862</v>
       </c>
       <c r="D39">
-        <v>46830.27360907153</v>
+        <v>649.96481647162</v>
       </c>
       <c r="E39">
-        <v>6258.323802853711</v>
+        <v>4346.27866768813</v>
       </c>
       <c r="F39">
-        <v>5114.287871112081</v>
+        <v>4665.269715874544</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>153</v>
+        <v>199.4</v>
       </c>
       <c r="B40">
-        <v>36678.31743031488</v>
+        <v>58506.78890284762</v>
       </c>
       <c r="C40">
-        <v>16481.39777613114</v>
+        <v>23835.47128668537</v>
       </c>
       <c r="D40">
-        <v>48017.47758698317</v>
+        <v>35.49170396701084</v>
       </c>
       <c r="E40">
-        <v>7554.123331452427</v>
+        <v>3931.906020109593</v>
       </c>
       <c r="F40">
-        <v>8578.612526829245</v>
+        <v>4252.756457311539</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>155.4</v>
+        <v>201.7</v>
       </c>
       <c r="B41">
-        <v>37529.81764428871</v>
+        <v>74254.62943195435</v>
       </c>
       <c r="C41">
-        <v>21408.84985335423</v>
+        <v>24338.93170336876</v>
       </c>
       <c r="D41">
-        <v>49242.60919925044</v>
+        <v>569.9061772576388</v>
       </c>
       <c r="E41">
-        <v>8276.81372628739</v>
+        <v>4161.880070368395</v>
       </c>
       <c r="F41">
-        <v>12774.23942397524</v>
+        <v>4461.038050632032</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>157.3</v>
+        <v>204</v>
       </c>
       <c r="B42">
-        <v>44212.2553136847</v>
+        <v>96802.4699610612</v>
       </c>
       <c r="C42">
-        <v>22913.08274782251</v>
+        <v>23862.39212005217</v>
       </c>
       <c r="D42">
-        <v>49057.92172562869</v>
+        <v>1994.320650548281</v>
       </c>
       <c r="E42">
-        <v>10272.27695553174</v>
+        <v>4511.854120627203</v>
       </c>
       <c r="F42">
-        <v>17836.61071754915</v>
+        <v>4219.319643952525</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>159.8</v>
+        <v>206.3</v>
       </c>
       <c r="B43">
-        <v>43357.56803657415</v>
+        <v>104650.3104901679</v>
       </c>
       <c r="C43">
-        <v>27199.17866159657</v>
+        <v>22125.85253673559</v>
       </c>
       <c r="D43">
-        <v>50117.01715507373</v>
+        <v>1208.735123838909</v>
       </c>
       <c r="E43">
-        <v>9908.412783484822</v>
+        <v>4481.828170886003</v>
       </c>
       <c r="F43">
-        <v>18832.88873540957</v>
+        <v>4087.601237273018</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>162.1</v>
+        <v>208.8</v>
       </c>
       <c r="B44">
-        <v>53015.25574163249</v>
+        <v>133019.7023696318</v>
       </c>
       <c r="C44">
-        <v>29107.9869022687</v>
+        <v>22251.35298965233</v>
       </c>
       <c r="D44">
-        <v>49838.18495016319</v>
+        <v>550.9247687200404</v>
       </c>
       <c r="E44">
-        <v>10717.65774520166</v>
+        <v>4780.495616819487</v>
       </c>
       <c r="F44">
-        <v>15417.86451184115</v>
+        <v>4637.472534360512</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>164.3</v>
+        <v>211.1</v>
       </c>
       <c r="B45">
-        <v>54879.13093777521</v>
+        <v>160167.5428987386</v>
       </c>
       <c r="C45">
-        <v>28678.15130638986</v>
+        <v>23094.81340633574</v>
       </c>
       <c r="D45">
-        <v>44215.38892807483</v>
+        <v>1455.339242010683</v>
       </c>
       <c r="E45">
-        <v>8103.457273800374</v>
+        <v>4320.469667078288</v>
       </c>
       <c r="F45">
-        <v>8542.18916755831</v>
+        <v>4435.754127681005</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>166.8</v>
+        <v>213.4</v>
       </c>
       <c r="B46">
-        <v>43324.44366066466</v>
+        <v>174115.3834278453</v>
       </c>
       <c r="C46">
-        <v>27174.24722016392</v>
+        <v>24388.27382301915</v>
       </c>
       <c r="D46">
-        <v>41974.4843575199</v>
+        <v>309.7537153013254</v>
       </c>
       <c r="E46">
-        <v>8139.593101753462</v>
+        <v>3490.443717337089</v>
       </c>
       <c r="F46">
-        <v>6338.467185418722</v>
+        <v>4374.035721001499</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>168.8</v>
+        <v>215.6</v>
       </c>
       <c r="B47">
-        <v>51300.69383897627</v>
+        <v>198052.4482817735</v>
       </c>
       <c r="C47">
-        <v>25777.12395118315</v>
+        <v>23640.71422158588</v>
       </c>
       <c r="D47">
-        <v>39543.76070107593</v>
+        <v>85.28060279670171</v>
       </c>
       <c r="E47">
-        <v>7508.501764115932</v>
+        <v>4506.071069758553</v>
       </c>
       <c r="F47">
-        <v>5491.489599707051</v>
+        <v>4081.522462438494</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>171.4</v>
+        <v>218.2</v>
       </c>
       <c r="B48">
-        <v>44139.81907078133</v>
+        <v>235132.615836416</v>
       </c>
       <c r="C48">
-        <v>27101.86370150818</v>
+        <v>26137.23469261931</v>
       </c>
       <c r="D48">
-        <v>36906.81994769882</v>
+        <v>1846.357833473085</v>
       </c>
       <c r="E48">
-        <v>6858.083025187148</v>
+        <v>5529.085213529374</v>
       </c>
       <c r="F48">
-        <v>5348.418738281878</v>
+        <v>4882.188611409486</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>173.6</v>
+        <v>220.5</v>
       </c>
       <c r="B49">
-        <v>40103.69426692405</v>
+        <v>262280.4563655227</v>
       </c>
       <c r="C49">
-        <v>26732.02810562934</v>
+        <v>23550.69510930272</v>
       </c>
       <c r="D49">
-        <v>35284.02392561046</v>
+        <v>1800.772306763713</v>
       </c>
       <c r="E49">
-        <v>6563.882553785864</v>
+        <v>3109.059263788181</v>
       </c>
       <c r="F49">
-        <v>4972.743393999042</v>
+        <v>4640.47020472998</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>175.9</v>
+        <v>222.7</v>
       </c>
       <c r="B50">
-        <v>33361.38197198228</v>
+        <v>297717.5212194509</v>
       </c>
       <c r="C50">
-        <v>26460.83634630147</v>
+        <v>25663.13550786946</v>
       </c>
       <c r="D50">
-        <v>33885.19172069991</v>
+        <v>1316.299194259103</v>
       </c>
       <c r="E50">
-        <v>7673.1275155027</v>
+        <v>3854.686616209645</v>
       </c>
       <c r="F50">
-        <v>4987.719170430622</v>
+        <v>4127.956946166971</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>178.2</v>
+        <v>225</v>
       </c>
       <c r="B51">
-        <v>33519.06967704061</v>
+        <v>336565.3617485577</v>
       </c>
       <c r="C51">
-        <v>29209.64458697361</v>
+        <v>24856.59592455286</v>
       </c>
       <c r="D51">
-        <v>32466.35951578937</v>
+        <v>2200.713667549731</v>
       </c>
       <c r="E51">
-        <v>6282.372477219542</v>
+        <v>4264.660666468446</v>
       </c>
       <c r="F51">
-        <v>4262.694946862202</v>
+        <v>3926.238539487464</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>180.5</v>
+        <v>227.3</v>
       </c>
       <c r="B52">
-        <v>40676.75738209895</v>
+        <v>355213.2022776644</v>
       </c>
       <c r="C52">
-        <v>29228.45282764574</v>
+        <v>24400.05634123627</v>
       </c>
       <c r="D52">
-        <v>31947.52731087882</v>
+        <v>1325.128140840374</v>
       </c>
       <c r="E52">
-        <v>7081.617438936378</v>
+        <v>4264.634716727247</v>
       </c>
       <c r="F52">
-        <v>4127.670723293779</v>
+        <v>4524.52013280796</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>183.1</v>
+        <v>229.5</v>
       </c>
       <c r="B53">
-        <v>46315.88261390401</v>
+        <v>384050.2671315927</v>
       </c>
       <c r="C53">
-        <v>29273.19257797076</v>
+        <v>25612.49673980301</v>
       </c>
       <c r="D53">
-        <v>31780.58655750168</v>
+        <v>1990.655028335765</v>
       </c>
       <c r="E53">
-        <v>6921.198700007593</v>
+        <v>3950.262069148711</v>
       </c>
       <c r="F53">
-        <v>4114.59986186861</v>
+        <v>4142.006874244955</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>185.4</v>
+        <v>232.1</v>
       </c>
       <c r="B54">
-        <v>38173.57031896223</v>
+        <v>427330.4346862352</v>
       </c>
       <c r="C54">
-        <v>31112.00081864289</v>
+        <v>24489.01721083643</v>
       </c>
       <c r="D54">
-        <v>28881.75435259115</v>
+        <v>3241.732259012133</v>
       </c>
       <c r="E54">
-        <v>7190.443661724428</v>
+        <v>3863.276212919538</v>
       </c>
       <c r="F54">
-        <v>4389.57563830019</v>
+        <v>3642.673023215948</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>187.7</v>
+        <v>234.4</v>
       </c>
       <c r="B55">
-        <v>44631.25802402057</v>
+        <v>448778.2752153419</v>
       </c>
       <c r="C55">
-        <v>30260.80905931502</v>
+        <v>22142.47762751983</v>
       </c>
       <c r="D55">
-        <v>28752.92214768061</v>
+        <v>1016.146732302761</v>
       </c>
       <c r="E55">
-        <v>7199.68862344127</v>
+        <v>3753.25026317834</v>
       </c>
       <c r="F55">
-        <v>4644.551414731766</v>
+        <v>3580.954616536441</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>190</v>
+        <v>236.6</v>
       </c>
       <c r="B56">
-        <v>45588.94572907891</v>
+        <v>474215.3400692701</v>
       </c>
       <c r="C56">
-        <v>30359.61729998715</v>
+        <v>27304.91802608657</v>
       </c>
       <c r="D56">
-        <v>28194.08994277006</v>
+        <v>3601.673619798166</v>
       </c>
       <c r="E56">
-        <v>6978.933585158114</v>
+        <v>4168.877615599804</v>
       </c>
       <c r="F56">
-        <v>4329.527191163346</v>
+        <v>3748.441357973432</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>192.6</v>
+        <v>238.9</v>
       </c>
       <c r="B57">
-        <v>52828.07096088385</v>
+        <v>539763.1805983769</v>
       </c>
       <c r="C57">
-        <v>32614.35705031216</v>
+        <v>25828.37844276998</v>
       </c>
       <c r="D57">
-        <v>28137.14918939293</v>
+        <v>3696.088093088794</v>
       </c>
       <c r="E57">
-        <v>6308.514846229322</v>
+        <v>4268.851665858605</v>
       </c>
       <c r="F57">
-        <v>4656.456329738177</v>
+        <v>3446.722951293926</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>194.5</v>
+        <v>241.1</v>
       </c>
       <c r="B58">
-        <v>61910.50863027984</v>
+        <v>584800.2454523051</v>
       </c>
       <c r="C58">
-        <v>32128.58994478045</v>
+        <v>24040.81884133672</v>
       </c>
       <c r="D58">
-        <v>25472.46171577116</v>
+        <v>3081.614980584185</v>
       </c>
       <c r="E58">
-        <v>7693.978075473673</v>
+        <v>3594.479018280068</v>
       </c>
       <c r="F58">
-        <v>4528.827623312091</v>
+        <v>2914.20969273092</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>197.2</v>
+        <v>243.7</v>
       </c>
       <c r="B59">
-        <v>65943.44637100052</v>
+        <v>619880.4130069476</v>
       </c>
       <c r="C59">
-        <v>32561.97353165643</v>
+        <v>25367.33931237015</v>
       </c>
       <c r="D59">
-        <v>25449.48477957182</v>
+        <v>1992.692211260553</v>
       </c>
       <c r="E59">
-        <v>6887.004769663007</v>
+        <v>2947.493162050889</v>
       </c>
       <c r="F59">
-        <v>4946.407882601334</v>
+        <v>2984.875841701913</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>199.4</v>
+        <v>245.7</v>
       </c>
       <c r="B60">
-        <v>70207.32156714326</v>
+        <v>670495.9265105186</v>
       </c>
       <c r="C60">
-        <v>33372.13793577759</v>
+        <v>24807.73967470354</v>
       </c>
       <c r="D60">
-        <v>24286.68875748348</v>
+        <v>1460.443927165456</v>
       </c>
       <c r="E60">
-        <v>6452.804298261723</v>
+        <v>3574.427118797678</v>
       </c>
       <c r="F60">
-        <v>4530.732538318498</v>
+        <v>2450.772879371906</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>201.7</v>
+        <v>248.3</v>
       </c>
       <c r="B61">
-        <v>85565.00927220157</v>
+        <v>719076.0940651611</v>
       </c>
       <c r="C61">
-        <v>33820.94617644972</v>
+        <v>24034.26014573695</v>
       </c>
       <c r="D61">
-        <v>24247.85655257294</v>
+        <v>1731.521157841824</v>
       </c>
       <c r="E61">
-        <v>6662.049259978559</v>
+        <v>2767.441262568498</v>
       </c>
       <c r="F61">
-        <v>4735.708314750078</v>
+        <v>2391.439028342902</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>204</v>
+        <v>250.5</v>
       </c>
       <c r="B62">
-        <v>107722.6969772598</v>
+        <v>752813.1589190895</v>
       </c>
       <c r="C62">
-        <v>33289.75441712185</v>
+        <v>22746.7005443037</v>
       </c>
       <c r="D62">
-        <v>25099.02434766239</v>
+        <v>1997.048045337215</v>
       </c>
       <c r="E62">
-        <v>6991.294221695402</v>
+        <v>3243.068614989962</v>
       </c>
       <c r="F62">
-        <v>4490.684091181654</v>
+        <v>1728.925769779894</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>206.3</v>
+        <v>252.8</v>
       </c>
       <c r="B63">
-        <v>115180.3846823181</v>
+        <v>793660.999448196</v>
       </c>
       <c r="C63">
-        <v>31498.56265779398</v>
+        <v>22240.16096098709</v>
       </c>
       <c r="D63">
-        <v>23740.19214275185</v>
+        <v>3421.462518627857</v>
       </c>
       <c r="E63">
-        <v>6940.539183412244</v>
+        <v>1983.042665248763</v>
       </c>
       <c r="F63">
-        <v>4355.659867613235</v>
+        <v>1917.207363100387</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>208.8</v>
+        <v>255.4</v>
       </c>
       <c r="B64">
-        <v>143125.6974052076</v>
+        <v>824441.1670028385</v>
       </c>
       <c r="C64">
-        <v>31564.65857156803</v>
+        <v>21386.68143202051</v>
       </c>
       <c r="D64">
-        <v>22459.2875721969</v>
+        <v>2542.539749304226</v>
       </c>
       <c r="E64">
-        <v>7216.675011365325</v>
+        <v>3086.056809019583</v>
       </c>
       <c r="F64">
-        <v>4901.93788547365</v>
+        <v>1697.87351207138</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>211.1</v>
+        <v>257.7</v>
       </c>
       <c r="B65">
-        <v>169883.3851102659</v>
+        <v>831789.0075319452</v>
       </c>
       <c r="C65">
-        <v>32353.46681224016</v>
+        <v>20780.14184870393</v>
       </c>
       <c r="D65">
-        <v>22790.45536728636</v>
+        <v>3016.954222594853</v>
       </c>
       <c r="E65">
-        <v>6735.919973082168</v>
+        <v>2936.030859278392</v>
       </c>
       <c r="F65">
-        <v>4696.913661905227</v>
+        <v>1406.155105391873</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>213.4</v>
+        <v>260</v>
       </c>
       <c r="B66">
-        <v>183441.0728153242</v>
+        <v>859236.8480610522</v>
       </c>
       <c r="C66">
-        <v>33592.27505291229</v>
+        <v>20313.60226538732</v>
       </c>
       <c r="D66">
-        <v>21071.62316237581</v>
+        <v>1531.368695885481</v>
       </c>
       <c r="E66">
-        <v>5885.164934799004</v>
+        <v>2936.004909537193</v>
       </c>
       <c r="F66">
-        <v>4631.889438336807</v>
+        <v>1614.43669871237</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>215.6</v>
+        <v>262.3</v>
       </c>
       <c r="B67">
-        <v>207004.948011467</v>
+        <v>862484.6885901587</v>
       </c>
       <c r="C67">
-        <v>32792.43945703347</v>
+        <v>19977.06268207073</v>
       </c>
       <c r="D67">
-        <v>20298.82714028746</v>
+        <v>4105.783169176124</v>
       </c>
       <c r="E67">
-        <v>6880.964463397728</v>
+        <v>2845.978959795993</v>
       </c>
       <c r="F67">
-        <v>4336.214094053971</v>
+        <v>1712.718292032863</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>218.2</v>
+        <v>264.6</v>
       </c>
       <c r="B68">
-        <v>243644.0732432719</v>
+        <v>856232.5291192656</v>
       </c>
       <c r="C68">
-        <v>35227.17920735848</v>
+        <v>19250.52309875415</v>
       </c>
       <c r="D68">
-        <v>21411.88638691033</v>
+        <v>2030.197642466766</v>
       </c>
       <c r="E68">
-        <v>7880.545724468935</v>
+        <v>2055.953010054795</v>
       </c>
       <c r="F68">
-        <v>5133.1432326288</v>
+        <v>1470.999885353356</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>220.5</v>
+        <v>266.8</v>
       </c>
       <c r="B69">
-        <v>270401.7609483303</v>
+        <v>842269.5939731938</v>
       </c>
       <c r="C69">
-        <v>32585.98744803061</v>
+        <v>18242.96349732089</v>
       </c>
       <c r="D69">
-        <v>20793.05418199978</v>
+        <v>3275.724529962157</v>
       </c>
       <c r="E69">
-        <v>5439.790686185778</v>
+        <v>1691.580362476258</v>
       </c>
       <c r="F69">
-        <v>4888.11900906038</v>
+        <v>1148.486626790351</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>222.7</v>
+        <v>269.4</v>
       </c>
       <c r="B70">
-        <v>305465.636144473</v>
+        <v>802149.7615278361</v>
       </c>
       <c r="C70">
-        <v>34646.15185215178</v>
+        <v>16209.48396835431</v>
       </c>
       <c r="D70">
-        <v>19760.25815991143</v>
+        <v>3726.801760638526</v>
       </c>
       <c r="E70">
-        <v>6165.590214784494</v>
+        <v>2154.594506247079</v>
       </c>
       <c r="F70">
-        <v>4372.443664777543</v>
+        <v>1129.152775761344</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>225</v>
+        <v>271.7</v>
       </c>
       <c r="B71">
-        <v>343923.3238495313</v>
+        <v>765597.602056943</v>
       </c>
       <c r="C71">
-        <v>33784.96009282391</v>
+        <v>14412.94438503772</v>
       </c>
       <c r="D71">
-        <v>20071.42595500088</v>
+        <v>3081.216233929168</v>
       </c>
       <c r="E71">
-        <v>6554.83517650133</v>
+        <v>1454.568556505887</v>
       </c>
       <c r="F71">
-        <v>4167.419441209119</v>
+        <v>1397.434369081837</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>227.3</v>
+        <v>274</v>
       </c>
       <c r="B72">
-        <v>362181.0115545896</v>
+        <v>732345.4425860498</v>
       </c>
       <c r="C72">
-        <v>33273.76833349604</v>
+        <v>16566.40480172112</v>
       </c>
       <c r="D72">
-        <v>18622.59375009034</v>
+        <v>3485.630707219781</v>
       </c>
       <c r="E72">
-        <v>6534.080138218173</v>
+        <v>1904.542606764688</v>
       </c>
       <c r="F72">
-        <v>4762.395217640699</v>
+        <v>1285.71596240233</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>229.5</v>
+        <v>276.2</v>
       </c>
       <c r="B73">
-        <v>390644.8867507324</v>
+        <v>672882.507439978</v>
       </c>
       <c r="C73">
-        <v>34433.93273761722</v>
+        <v>15698.84520028787</v>
       </c>
       <c r="D73">
-        <v>18739.797728002</v>
+        <v>6241.157594715187</v>
       </c>
       <c r="E73">
-        <v>6199.879666816889</v>
+        <v>2000.169959186152</v>
       </c>
       <c r="F73">
-        <v>4376.719873357864</v>
+        <v>1183.202703839325</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>232.1</v>
+        <v>278.5</v>
       </c>
       <c r="B74">
-        <v>433484.0119825373</v>
+        <v>617930.3479690849</v>
       </c>
       <c r="C74">
-        <v>33248.67248794223</v>
+        <v>15512.30561697128</v>
       </c>
       <c r="D74">
-        <v>19342.85697462487</v>
+        <v>4955.572068005815</v>
       </c>
       <c r="E74">
-        <v>6089.460927888096</v>
+        <v>2270.144009444953</v>
       </c>
       <c r="F74">
-        <v>3873.649011932691</v>
+        <v>1401.484297159818</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>234.4</v>
+        <v>281.1</v>
       </c>
       <c r="B75">
-        <v>454541.6996875957</v>
+        <v>553610.5155237271</v>
       </c>
       <c r="C75">
-        <v>30847.48072861436</v>
+        <v>14448.82608800469</v>
       </c>
       <c r="D75">
-        <v>16544.02476971431</v>
+        <v>3716.649298682183</v>
       </c>
       <c r="E75">
-        <v>5958.705889604939</v>
+        <v>1373.158153215773</v>
       </c>
       <c r="F75">
-        <v>3808.624788364271</v>
+        <v>1002.150446130811</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>236.6</v>
+        <v>283.4</v>
       </c>
       <c r="B76">
-        <v>479605.5748837384</v>
+        <v>511258.3560528337</v>
       </c>
       <c r="C76">
-        <v>35957.64513273553</v>
+        <v>15842.2865046881</v>
       </c>
       <c r="D76">
-        <v>18581.22874762597</v>
+        <v>8031.063771972826</v>
       </c>
       <c r="E76">
-        <v>6354.505418203656</v>
+        <v>2003.132203474582</v>
       </c>
       <c r="F76">
-        <v>3972.949444081436</v>
+        <v>1200.432039451304</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>238.9</v>
+        <v>285.7</v>
       </c>
       <c r="B77">
-        <v>544763.2625887967</v>
+        <v>467406.1965819406</v>
       </c>
       <c r="C77">
-        <v>34426.45337340766</v>
+        <v>15615.74692137151</v>
       </c>
       <c r="D77">
-        <v>18102.39654271542</v>
+        <v>7695.478245263468</v>
       </c>
       <c r="E77">
-        <v>6433.750379920499</v>
+        <v>1633.106253733383</v>
       </c>
       <c r="F77">
-        <v>3667.925220513016</v>
+        <v>788.7136327717974</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>241.1</v>
+        <v>287.9</v>
       </c>
       <c r="B78">
-        <v>589427.1377849395</v>
+        <v>428243.2614358687</v>
       </c>
       <c r="C78">
-        <v>32586.61777752884</v>
+        <v>14538.18731993825</v>
       </c>
       <c r="D78">
-        <v>16939.60052062707</v>
+        <v>7421.005132758859</v>
       </c>
       <c r="E78">
-        <v>5739.549908519215</v>
+        <v>1728.733606154847</v>
       </c>
       <c r="F78">
-        <v>3132.249876230177</v>
+        <v>966.200374208792</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>243.7</v>
+        <v>290.2</v>
       </c>
       <c r="B79">
-        <v>624066.2630167445</v>
+        <v>413291.1019649756</v>
       </c>
       <c r="C79">
-        <v>33851.35752785385</v>
+        <v>16681.64773662165</v>
       </c>
       <c r="D79">
-        <v>15202.65976724994</v>
+        <v>7965.419606049487</v>
       </c>
       <c r="E79">
-        <v>5069.131169590422</v>
+        <v>1778.707656413648</v>
       </c>
       <c r="F79">
-        <v>3199.179014805008</v>
+        <v>1004.481967529285</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>245.7</v>
+        <v>292.9</v>
       </c>
       <c r="B80">
-        <v>674342.5131950561</v>
+        <v>376782.0451947965</v>
       </c>
       <c r="C80">
-        <v>33244.2342588731</v>
+        <v>17659.18822577174</v>
       </c>
       <c r="D80">
-        <v>14171.93611080598</v>
+        <v>6225.384422521092</v>
       </c>
       <c r="E80">
-        <v>5678.039831952893</v>
+        <v>996.0684980218125</v>
       </c>
       <c r="F80">
-        <v>2662.201429093337</v>
+        <v>595.9429683837766</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>248.3</v>
+        <v>295.1</v>
       </c>
       <c r="B81">
-        <v>722481.638426861</v>
+        <v>341219.1100487248</v>
       </c>
       <c r="C81">
-        <v>32408.9740091981</v>
+        <v>18591.62862433848</v>
       </c>
       <c r="D81">
-        <v>13794.99535742884</v>
+        <v>8480.911310016483</v>
       </c>
       <c r="E81">
-        <v>4847.6210930241</v>
+        <v>1121.695850443276</v>
       </c>
       <c r="F81">
-        <v>2599.130567668164</v>
+        <v>1083.429709820771</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>250.5</v>
+        <v>297.4</v>
       </c>
       <c r="B82">
-        <v>755845.5136230038</v>
+        <v>318266.9505778315</v>
       </c>
       <c r="C82">
-        <v>31069.13841331928</v>
+        <v>22535.08904102189</v>
       </c>
       <c r="D82">
-        <v>13512.19933534049</v>
+        <v>8415.325783307126</v>
       </c>
       <c r="E82">
-        <v>5303.420621622824</v>
+        <v>1741.669900702077</v>
       </c>
       <c r="F82">
-        <v>1933.455223385328</v>
+        <v>471.7113031412646</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>252.8</v>
+        <v>299.7</v>
       </c>
       <c r="B83">
-        <v>796303.2013280621</v>
+        <v>287814.7911069383</v>
       </c>
       <c r="C83">
-        <v>30507.94665399141</v>
+        <v>19888.54945770529</v>
       </c>
       <c r="D83">
-        <v>14363.36713042995</v>
+        <v>7729.740256597768</v>
       </c>
       <c r="E83">
-        <v>4022.66558333966</v>
+        <v>1161.643950960879</v>
       </c>
       <c r="F83">
-        <v>2118.430999816908</v>
+        <v>869.9928964617577</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>255.4</v>
+        <v>302</v>
       </c>
       <c r="B84">
-        <v>826642.3265598671</v>
+        <v>272262.6316360451</v>
       </c>
       <c r="C84">
-        <v>29592.68640431642</v>
+        <v>22102.00987438871</v>
       </c>
       <c r="D84">
-        <v>12836.42637705281</v>
+        <v>7754.154729888396</v>
       </c>
       <c r="E84">
-        <v>5102.246844410874</v>
+        <v>1521.618001219687</v>
       </c>
       <c r="F84">
-        <v>1895.360138391736</v>
+        <v>908.2744897822508</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>257.7</v>
+        <v>304.6</v>
       </c>
       <c r="B85">
-        <v>833600.0142649256</v>
+        <v>260542.7991906875</v>
       </c>
       <c r="C85">
-        <v>28931.49464498855</v>
+        <v>25968.53034542211</v>
       </c>
       <c r="D85">
-        <v>12737.59417214227</v>
+        <v>8625.231960564779</v>
       </c>
       <c r="E85">
-        <v>4931.49180612771</v>
+        <v>894.6321449904995</v>
       </c>
       <c r="F85">
-        <v>1600.335914823316</v>
+        <v>688.9406387532435</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>260</v>
+        <v>306.8</v>
       </c>
       <c r="B86">
-        <v>860657.7019699838</v>
+        <v>245179.8640446156</v>
       </c>
       <c r="C86">
-        <v>28410.30288566068</v>
+        <v>27280.97074398886</v>
       </c>
       <c r="D86">
-        <v>10678.76196723172</v>
+        <v>8930.75884806017</v>
       </c>
       <c r="E86">
-        <v>4910.736767844553</v>
+        <v>790.2594974119634</v>
       </c>
       <c r="F86">
-        <v>1805.311691254894</v>
+        <v>996.4273801902382</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>262.3</v>
+        <v>309.1</v>
       </c>
       <c r="B87">
-        <v>863515.389675042</v>
+        <v>231727.7045737225</v>
       </c>
       <c r="C87">
-        <v>28019.11112633281</v>
+        <v>29924.43116067226</v>
       </c>
       <c r="D87">
-        <v>12679.92976232118</v>
+        <v>10495.17332135078</v>
       </c>
       <c r="E87">
-        <v>4799.981729561388</v>
+        <v>630.2335476707717</v>
       </c>
       <c r="F87">
-        <v>1900.287467686474</v>
+        <v>814.7089735107315</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>264.6</v>
+        <v>311.4</v>
       </c>
       <c r="B88">
-        <v>856873.0773801005</v>
+        <v>235275.5451028292</v>
       </c>
       <c r="C88">
-        <v>27237.91936700493</v>
+        <v>31697.89157735569</v>
       </c>
       <c r="D88">
-        <v>10031.09755741063</v>
+        <v>8749.587794641426</v>
       </c>
       <c r="E88">
-        <v>3989.226691278231</v>
+        <v>760.2075979295732</v>
       </c>
       <c r="F88">
-        <v>1655.263244118052</v>
+        <v>712.9905668312249</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>266.8</v>
+        <v>313.7</v>
       </c>
       <c r="B89">
-        <v>842536.9525762431</v>
+        <v>228523.385631936</v>
       </c>
       <c r="C89">
-        <v>26178.08377112611</v>
+        <v>30271.35199403909</v>
       </c>
       <c r="D89">
-        <v>10728.30153532228</v>
+        <v>8524.002267932068</v>
       </c>
       <c r="E89">
-        <v>3605.026219876947</v>
+        <v>950.1816481883743</v>
       </c>
       <c r="F89">
-        <v>1329.587899835217</v>
+        <v>701.2721601517183</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>269.4</v>
+        <v>316.2</v>
       </c>
       <c r="B90">
-        <v>801976.0778080481</v>
+        <v>220892.7775113999</v>
       </c>
       <c r="C90">
-        <v>24082.82352145114</v>
+        <v>28406.85244695583</v>
       </c>
       <c r="D90">
-        <v>10531.36078194515</v>
+        <v>9866.191912813199</v>
       </c>
       <c r="E90">
-        <v>4044.607480948159</v>
+        <v>978.849094121857</v>
       </c>
       <c r="F90">
-        <v>1306.517038410044</v>
+        <v>861.1434572392122</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>271.7</v>
+        <v>318.5</v>
       </c>
       <c r="B91">
-        <v>765033.7655131064</v>
+        <v>219540.6180405067</v>
       </c>
       <c r="C91">
-        <v>22231.63176212326</v>
+        <v>23910.31286363924</v>
       </c>
       <c r="D91">
-        <v>9312.528577034605</v>
+        <v>11620.60638610383</v>
       </c>
       <c r="E91">
-        <v>3323.852442664998</v>
+        <v>428.8231443806653</v>
       </c>
       <c r="F91">
-        <v>1571.492814841624</v>
+        <v>889.4250505597054</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>274</v>
+        <v>320.8</v>
       </c>
       <c r="B92">
-        <v>731391.4532181649</v>
+        <v>228888.4585696134</v>
       </c>
       <c r="C92">
-        <v>24330.44000279539</v>
+        <v>22813.77328032265</v>
       </c>
       <c r="D92">
-        <v>9143.696372124057</v>
+        <v>10525.02085939447</v>
       </c>
       <c r="E92">
-        <v>3753.097404381841</v>
+        <v>438.7971946394664</v>
       </c>
       <c r="F92">
-        <v>1456.468591273204</v>
+        <v>767.7066438801987</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>276.2</v>
+        <v>323</v>
       </c>
       <c r="B93">
-        <v>671555.3284143074</v>
+        <v>213825.5234235416</v>
       </c>
       <c r="C93">
-        <v>23410.60440691655</v>
+        <v>18466.21367888939</v>
       </c>
       <c r="D93">
-        <v>11350.90035003572</v>
+        <v>8800.547746889861</v>
       </c>
       <c r="E93">
-        <v>3828.896932980557</v>
+        <v>244.4245470609303</v>
       </c>
       <c r="F93">
-        <v>1350.793246990367</v>
+        <v>1045.193385317193</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>278.5</v>
+        <v>325.3</v>
       </c>
       <c r="B94">
-        <v>616213.0161193659</v>
+        <v>221973.3639526484</v>
       </c>
       <c r="C94">
-        <v>23169.41264758868</v>
+        <v>15859.67409557279</v>
       </c>
       <c r="D94">
-        <v>9492.068145125173</v>
+        <v>10504.96222018049</v>
       </c>
       <c r="E94">
-        <v>4078.141894697393</v>
+        <v>854.3985973197314</v>
       </c>
       <c r="F94">
-        <v>1565.769023421945</v>
+        <v>873.4749786376865</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>281.1</v>
+        <v>327.5</v>
       </c>
       <c r="B95">
-        <v>551452.1413511707</v>
+        <v>225910.4288065766</v>
       </c>
       <c r="C95">
-        <v>22044.15239791371</v>
+        <v>12022.11449413954</v>
       </c>
       <c r="D95">
-        <v>7605.127391748025</v>
+        <v>10810.48910767589</v>
       </c>
       <c r="E95">
-        <v>3157.723155768604</v>
+        <v>880.0259497411953</v>
       </c>
       <c r="F95">
-        <v>1162.698161996776</v>
+        <v>580.9617200746814</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>283.4</v>
+        <v>329.8</v>
       </c>
       <c r="B96">
-        <v>508709.8290562291</v>
+        <v>216458.2693356833</v>
       </c>
       <c r="C96">
-        <v>23382.96063858585</v>
+        <v>12215.57491082294</v>
       </c>
       <c r="D96">
-        <v>11346.29518683748</v>
+        <v>11784.90358096652</v>
       </c>
       <c r="E96">
-        <v>3766.968117485447</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1357.673938428354</v>
+        <v>789.2433133951745</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>285.7</v>
+        <v>332.4</v>
       </c>
       <c r="B97">
-        <v>464467.5167612873</v>
+        <v>204638.4368903258</v>
       </c>
       <c r="C97">
-        <v>23101.76887925798</v>
+        <v>8212.095381856361</v>
       </c>
       <c r="D97">
-        <v>10437.46298192694</v>
+        <v>11565.98081164288</v>
       </c>
       <c r="E97">
-        <v>3376.213079202286</v>
+        <v>313.0141437708239</v>
       </c>
       <c r="F97">
-        <v>942.6497148599328</v>
+        <v>749.9094623661674</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>287.9</v>
+        <v>334.7</v>
       </c>
       <c r="B98">
-        <v>424931.3919574301</v>
+        <v>213186.2774194325</v>
       </c>
       <c r="C98">
-        <v>21971.93328337914</v>
+        <v>9785.555798539772</v>
       </c>
       <c r="D98">
-        <v>9614.666959838585</v>
+        <v>12020.39528493352</v>
       </c>
       <c r="E98">
-        <v>3452.012607801003</v>
+        <v>82.98819402962499</v>
       </c>
       <c r="F98">
-        <v>1116.974370577097</v>
+        <v>628.1910556866605</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>290.2</v>
+        <v>336.9</v>
       </c>
       <c r="B99">
-        <v>409589.0796624884</v>
+        <v>217623.3422733607</v>
       </c>
       <c r="C99">
-        <v>24060.74152405127</v>
+        <v>10867.99619710651</v>
       </c>
       <c r="D99">
-        <v>9585.834754928037</v>
+        <v>14005.92217242891</v>
       </c>
       <c r="E99">
-        <v>3481.257569517845</v>
+        <v>618.6155464510889</v>
       </c>
       <c r="F99">
-        <v>1151.950147008677</v>
+        <v>725.6777971236554</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>292.9</v>
+        <v>339.2</v>
       </c>
       <c r="B100">
-        <v>372622.0174032091</v>
+        <v>215471.1828024675</v>
       </c>
       <c r="C100">
-        <v>24974.12511092725</v>
+        <v>10611.45661378991</v>
       </c>
       <c r="D100">
-        <v>7172.857818728713</v>
+        <v>11850.33664571955</v>
       </c>
       <c r="E100">
-        <v>2674.284263707179</v>
+        <v>408.58959670989</v>
       </c>
       <c r="F100">
-        <v>739.5304062979221</v>
+        <v>663.9593904441485</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>295.1</v>
+        <v>341.8</v>
       </c>
       <c r="B101">
-        <v>336685.8925993518</v>
+        <v>224451.3503571099</v>
       </c>
       <c r="C101">
-        <v>25854.28951504842</v>
+        <v>11767.97708482333</v>
       </c>
       <c r="D101">
-        <v>8880.061796640355</v>
+        <v>12471.41387639592</v>
       </c>
       <c r="E101">
-        <v>2780.083792305892</v>
+        <v>391.6037404807098</v>
       </c>
       <c r="F101">
-        <v>1223.855062015085</v>
+        <v>334.625539415141</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>297.4</v>
+        <v>344.1</v>
       </c>
       <c r="B102">
-        <v>313343.58030441</v>
+        <v>225399.1908862168</v>
       </c>
       <c r="C102">
-        <v>29743.09775572055</v>
+        <v>8531.437501506727</v>
       </c>
       <c r="D102">
-        <v>8241.229591729818</v>
+        <v>12495.82834968656</v>
       </c>
       <c r="E102">
-        <v>3379.328754022735</v>
+        <v>2451.577790739518</v>
       </c>
       <c r="F102">
-        <v>608.8308384466648</v>
+        <v>492.9071327356341</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>299.7</v>
+        <v>346.3</v>
       </c>
       <c r="B103">
-        <v>282501.2680094683</v>
+        <v>225736.255740145</v>
       </c>
       <c r="C103">
-        <v>27041.90599639268</v>
+        <v>9953.877900073483</v>
       </c>
       <c r="D103">
-        <v>6982.39738681927</v>
+        <v>15921.35523718194</v>
       </c>
       <c r="E103">
-        <v>2778.573715739574</v>
+        <v>1507.205143160982</v>
       </c>
       <c r="F103">
-        <v>1003.806614878243</v>
+        <v>760.393874172629</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>302</v>
+        <v>348.6</v>
       </c>
       <c r="B104">
-        <v>266558.9557145266</v>
+        <v>228684.0962692517</v>
       </c>
       <c r="C104">
-        <v>29200.71423706481</v>
+        <v>9077.338316756883</v>
       </c>
       <c r="D104">
-        <v>6433.565181908725</v>
+        <v>14155.76971047257</v>
       </c>
       <c r="E104">
-        <v>3117.818677456413</v>
+        <v>537.1791934197759</v>
       </c>
       <c r="F104">
-        <v>1038.782391309823</v>
+        <v>768.6754674931221</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>304.6</v>
+        <v>350.9</v>
       </c>
       <c r="B105">
-        <v>254398.0809463316</v>
+        <v>220231.9367983584</v>
       </c>
       <c r="C105">
-        <v>33005.45398738982</v>
+        <v>7220.798733440311</v>
       </c>
       <c r="D105">
-        <v>6656.624428531588</v>
+        <v>14880.18418376321</v>
       </c>
       <c r="E105">
-        <v>2467.399938527624</v>
+        <v>2337.153243678585</v>
       </c>
       <c r="F105">
-        <v>815.711529884652</v>
+        <v>356.9570608136157</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>306.8</v>
+        <v>353.2</v>
       </c>
       <c r="B106">
-        <v>238661.9561424743</v>
+        <v>222779.7773274652</v>
       </c>
       <c r="C106">
-        <v>34265.61839151099</v>
+        <v>9824.259150123711</v>
       </c>
       <c r="D106">
-        <v>6413.828406443237</v>
+        <v>15554.59865705385</v>
       </c>
       <c r="E106">
-        <v>2343.199467126341</v>
+        <v>1817.127293937393</v>
       </c>
       <c r="F106">
-        <v>1120.036185601815</v>
+        <v>985.2386541341089</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>309.1</v>
+        <v>355.5</v>
       </c>
       <c r="B107">
-        <v>224819.6438475327</v>
+        <v>238027.617856572</v>
       </c>
       <c r="C107">
-        <v>36854.42663218312</v>
+        <v>9587.719566807107</v>
       </c>
       <c r="D107">
-        <v>7404.996201532689</v>
+        <v>16929.01313034449</v>
       </c>
       <c r="E107">
-        <v>2162.444428843179</v>
+        <v>3087.101344196187</v>
       </c>
       <c r="F107">
-        <v>935.0119620333946</v>
+        <v>583.520247454602</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>311.4</v>
+        <v>358.1</v>
       </c>
       <c r="B108">
-        <v>227977.331552591</v>
+        <v>241107.7854112145</v>
       </c>
       <c r="C108">
-        <v>38573.23487285525</v>
+        <v>8064.240037840525</v>
       </c>
       <c r="D108">
-        <v>5086.163996622148</v>
+        <v>16290.09036102086</v>
       </c>
       <c r="E108">
-        <v>2271.689390560023</v>
+        <v>3430.115487967014</v>
       </c>
       <c r="F108">
-        <v>829.9877384649733</v>
+        <v>674.1863964255947</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>313.7</v>
+        <v>360.4</v>
       </c>
       <c r="B109">
-        <v>220835.0192576493</v>
+        <v>236155.6259403212</v>
       </c>
       <c r="C109">
-        <v>37092.04311352738</v>
+        <v>8607.700454523943</v>
       </c>
       <c r="D109">
-        <v>4287.331791711604</v>
+        <v>16244.50483431148</v>
       </c>
       <c r="E109">
-        <v>2440.934352276862</v>
+        <v>4210.089538225822</v>
       </c>
       <c r="F109">
-        <v>814.9635148965533</v>
+        <v>672.4679897460883</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>316.2</v>
+        <v>362.6</v>
       </c>
       <c r="B110">
-        <v>212780.3319805388</v>
+        <v>236592.6907942494</v>
       </c>
       <c r="C110">
-        <v>35168.13902730144</v>
+        <v>9040.140853090681</v>
       </c>
       <c r="D110">
-        <v>5006.42722115666</v>
+        <v>19420.03172180689</v>
       </c>
       <c r="E110">
-        <v>2447.07018022995</v>
+        <v>4725.716890647279</v>
       </c>
       <c r="F110">
-        <v>971.2415327569647</v>
+        <v>719.9547311830863</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>318.5</v>
+        <v>364.9</v>
       </c>
       <c r="B111">
-        <v>211038.019685597</v>
+        <v>233240.5313233561</v>
       </c>
       <c r="C111">
-        <v>30616.94726797357</v>
+        <v>9953.601269774081</v>
       </c>
       <c r="D111">
-        <v>6187.595016246116</v>
+        <v>19914.44619509752</v>
       </c>
       <c r="E111">
-        <v>1876.315141946789</v>
+        <v>5895.690940906081</v>
       </c>
       <c r="F111">
-        <v>996.2173091885447</v>
+        <v>148.2363245035763</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>320.8</v>
+        <v>367.2</v>
       </c>
       <c r="B112">
-        <v>219995.7073906554</v>
+        <v>246188.371852463</v>
       </c>
       <c r="C112">
-        <v>29465.75550864569</v>
+        <v>10887.06168645749</v>
       </c>
       <c r="D112">
-        <v>4518.762811335568</v>
+        <v>21898.86066838814</v>
       </c>
       <c r="E112">
-        <v>1865.560103663628</v>
+        <v>8545.664991164889</v>
       </c>
       <c r="F112">
-        <v>871.193085620125</v>
+        <v>856.5179178240728</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>323</v>
+        <v>369.8</v>
       </c>
       <c r="B113">
-        <v>204559.5825867981</v>
+        <v>248768.5394071054</v>
       </c>
       <c r="C113">
-        <v>25065.91991276687</v>
+        <v>8833.582157490913</v>
       </c>
       <c r="D113">
-        <v>2245.966789247232</v>
+        <v>21629.93789906451</v>
       </c>
       <c r="E113">
-        <v>1651.359632262345</v>
+        <v>9948.679134935701</v>
       </c>
       <c r="F113">
-        <v>1145.517741337288</v>
+        <v>457.1840667950637</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>325.3</v>
+        <v>371.7</v>
       </c>
       <c r="B114">
-        <v>212317.2702918564</v>
+        <v>247173.2772354979</v>
       </c>
       <c r="C114">
-        <v>22404.728153439</v>
+        <v>10062.96250170763</v>
       </c>
       <c r="D114">
-        <v>3377.134584336687</v>
+        <v>23978.80202917418</v>
       </c>
       <c r="E114">
-        <v>2240.604593979184</v>
+        <v>12691.26639384515</v>
       </c>
       <c r="F114">
-        <v>970.4935177688658</v>
+        <v>462.2862525815572</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>327.5</v>
+        <v>374.3</v>
       </c>
       <c r="B115">
-        <v>215881.1454879991</v>
+        <v>252353.4447901404</v>
       </c>
       <c r="C115">
-        <v>18514.89255756018</v>
+        <v>8009.482972741051</v>
       </c>
       <c r="D115">
-        <v>3134.338562248333</v>
+        <v>27419.87925985055</v>
       </c>
       <c r="E115">
-        <v>2246.4041225779</v>
+        <v>15244.28053761597</v>
       </c>
       <c r="F115">
-        <v>674.8181734860302</v>
+        <v>632.9524015525499</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>329.8</v>
+        <v>376.6</v>
       </c>
       <c r="B116">
-        <v>206038.8331930575</v>
+        <v>262901.2853192471</v>
       </c>
       <c r="C116">
-        <v>18653.7007982323</v>
+        <v>8292.943389424465</v>
       </c>
       <c r="D116">
-        <v>3535.506357337785</v>
+        <v>27144.29373314118</v>
       </c>
       <c r="E116">
-        <v>1345.649084294739</v>
+        <v>18924.25458787478</v>
       </c>
       <c r="F116">
-        <v>879.7939499176084</v>
+        <v>591.2339948730428</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>332.4</v>
+        <v>378.9</v>
       </c>
       <c r="B117">
-        <v>193777.9584248624</v>
+        <v>285349.1258483538</v>
       </c>
       <c r="C117">
-        <v>14588.44054855732</v>
+        <v>10226.40380610788</v>
       </c>
       <c r="D117">
-        <v>2668.565603960655</v>
+        <v>30518.70820643181</v>
       </c>
       <c r="E117">
-        <v>1635.230345365955</v>
+        <v>21944.22863813358</v>
       </c>
       <c r="F117">
-        <v>836.7230884924377</v>
+        <v>679.5155881935366</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>334.7</v>
+        <v>381.4</v>
       </c>
       <c r="B118">
-        <v>201935.6461299208</v>
+        <v>289018.5177278178</v>
       </c>
       <c r="C118">
-        <v>16107.24878922944</v>
+        <v>9161.904259024624</v>
       </c>
       <c r="D118">
-        <v>2549.733399050107</v>
+        <v>34900.89785131293</v>
       </c>
       <c r="E118">
-        <v>1384.475307082794</v>
+        <v>27102.89608406706</v>
       </c>
       <c r="F118">
-        <v>711.6988649240177</v>
+        <v>299.3868852810306</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>336.9</v>
+        <v>383.7</v>
       </c>
       <c r="B119">
-        <v>205999.5213260635</v>
+        <v>290266.3582569245</v>
       </c>
       <c r="C119">
-        <v>17137.41319335062</v>
+        <v>6805.364675708039</v>
       </c>
       <c r="D119">
-        <v>3986.93737696176</v>
+        <v>37215.31232460357</v>
       </c>
       <c r="E119">
-        <v>1900.27483568151</v>
+        <v>32952.87013432587</v>
       </c>
       <c r="F119">
-        <v>806.0235206411803</v>
+        <v>547.6684786015276</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>339.2</v>
+        <v>386</v>
       </c>
       <c r="B120">
-        <v>203457.2090311218</v>
+        <v>330514.1987860312</v>
       </c>
       <c r="C120">
-        <v>16826.22143402275</v>
+        <v>8968.825092391449</v>
       </c>
       <c r="D120">
-        <v>1258.105172051211</v>
+        <v>41539.72679789423</v>
       </c>
       <c r="E120">
-        <v>1669.519797398349</v>
+        <v>41522.84418458468</v>
       </c>
       <c r="F120">
-        <v>740.9992970727585</v>
+        <v>1025.95007192202</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>341.8</v>
+        <v>388.2</v>
       </c>
       <c r="B121">
-        <v>211996.3342629269</v>
+        <v>347951.2636399595</v>
       </c>
       <c r="C121">
-        <v>17920.96118434776</v>
+        <v>7911.265490958176</v>
       </c>
       <c r="D121">
-        <v>1231.164418674074</v>
+        <v>46065.2536853896</v>
       </c>
       <c r="E121">
-        <v>1629.10105846956</v>
+        <v>50698.47153700615</v>
       </c>
       <c r="F121">
-        <v>407.9284356475875</v>
+        <v>363.4368133590119</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>344.1</v>
+        <v>390.5</v>
       </c>
       <c r="B122">
-        <v>212554.0219679851</v>
+        <v>366199.1041690662</v>
       </c>
       <c r="C122">
-        <v>14629.76942501989</v>
+        <v>8794.72590764159</v>
       </c>
       <c r="D122">
-        <v>682.3322137635332</v>
+        <v>52079.66815868023</v>
       </c>
       <c r="E122">
-        <v>3668.346020186399</v>
+        <v>58898.44558726494</v>
       </c>
       <c r="F122">
-        <v>562.9042120791676</v>
+        <v>671.7184066795048</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>346.3</v>
+        <v>392.8</v>
       </c>
       <c r="B123">
-        <v>212517.8971641278</v>
+        <v>410446.944698173</v>
       </c>
       <c r="C123">
-        <v>15999.93382914106</v>
+        <v>8078.186324325001</v>
       </c>
       <c r="D123">
-        <v>3559.536191675179</v>
+        <v>59254.08263197089</v>
       </c>
       <c r="E123">
-        <v>2704.145548785115</v>
+        <v>71168.41963752375</v>
       </c>
       <c r="F123">
-        <v>827.2288677963302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>348.6</v>
+        <v>395.4</v>
       </c>
       <c r="B124">
-        <v>215075.5848691862</v>
+        <v>465127.1122528155</v>
       </c>
       <c r="C124">
-        <v>15068.74206981319</v>
+        <v>10744.70679535842</v>
       </c>
       <c r="D124">
-        <v>1220.703986764631</v>
+        <v>69335.15986264726</v>
       </c>
       <c r="E124">
-        <v>1713.390510501955</v>
+        <v>90521.43378129456</v>
       </c>
       <c r="F124">
-        <v>832.2046442279102</v>
+        <v>920.6661489709909</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>350.9</v>
+        <v>397.6</v>
       </c>
       <c r="B125">
-        <v>206233.2725742445</v>
+        <v>525664.1771067436</v>
       </c>
       <c r="C125">
-        <v>13157.55031048532</v>
+        <v>10687.14719392515</v>
       </c>
       <c r="D125">
-        <v>1371.87178185409</v>
+        <v>77280.68675014265</v>
       </c>
       <c r="E125">
-        <v>3492.635472218794</v>
+        <v>112647.061133716</v>
       </c>
       <c r="F125">
-        <v>417.1804206594886</v>
+        <v>468.1528904079892</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>353.2</v>
+        <v>399.9</v>
       </c>
       <c r="B126">
-        <v>208390.9602793027</v>
+        <v>589012.0176358504</v>
       </c>
       <c r="C126">
-        <v>15706.35855115745</v>
+        <v>7970.607610608564</v>
       </c>
       <c r="D126">
-        <v>1473.039576943542</v>
+        <v>90665.10122343329</v>
       </c>
       <c r="E126">
-        <v>2951.880433935637</v>
+        <v>142087.0351839748</v>
       </c>
       <c r="F126">
-        <v>1042.156197091069</v>
+        <v>766.4344837284789</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>355.5</v>
+        <v>402.2</v>
       </c>
       <c r="B127">
-        <v>223248.647984361</v>
+        <v>698159.8581649574</v>
       </c>
       <c r="C127">
-        <v>15415.16679182958</v>
+        <v>6954.068027291974</v>
       </c>
       <c r="D127">
-        <v>2274.207372033001</v>
+        <v>106949.5156967239</v>
       </c>
       <c r="E127">
-        <v>4201.12539565248</v>
+        <v>185697.0092342336</v>
       </c>
       <c r="F127">
-        <v>637.1319735226471</v>
+        <v>964.7160770489759</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>358.1</v>
+        <v>404.8</v>
       </c>
       <c r="B128">
-        <v>225887.7732161661</v>
+        <v>834640.0257195997</v>
       </c>
       <c r="C128">
-        <v>13829.9065421546</v>
+        <v>10630.58849832539</v>
       </c>
       <c r="D128">
-        <v>987.2666186558636</v>
+        <v>129280.5929274003</v>
       </c>
       <c r="E128">
-        <v>4520.706656723687</v>
+        <v>237730.0233780044</v>
       </c>
       <c r="F128">
-        <v>724.0611120974779</v>
+        <v>1215.382226019968</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>360.4</v>
+        <v>407</v>
       </c>
       <c r="B129">
-        <v>220545.4609212245</v>
+        <v>1003277.090573528</v>
       </c>
       <c r="C129">
-        <v>14318.71478282675</v>
+        <v>9203.02889689212</v>
       </c>
       <c r="D129">
-        <v>368.4344137453227</v>
+        <v>153556.1198148957</v>
       </c>
       <c r="E129">
-        <v>5279.95161844053</v>
+        <v>284675.6507304259</v>
       </c>
       <c r="F129">
-        <v>719.0368885290563</v>
+        <v>972.8689674569596</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>362.6</v>
+        <v>409.3</v>
       </c>
       <c r="B130">
-        <v>220609.3361173672</v>
+        <v>1161924.931102634</v>
       </c>
       <c r="C130">
-        <v>14698.87918694789</v>
+        <v>6566.48931357553</v>
       </c>
       <c r="D130">
-        <v>2995.638391656961</v>
+        <v>183560.5342881863</v>
       </c>
       <c r="E130">
-        <v>5775.751147039238</v>
+        <v>346645.6247806847</v>
       </c>
       <c r="F130">
-        <v>763.3615442462187</v>
+        <v>951.1505607774525</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>364.9</v>
+        <v>411.5</v>
       </c>
       <c r="B131">
-        <v>216867.0238224254</v>
+        <v>1328361.995956562</v>
       </c>
       <c r="C131">
-        <v>15557.68742762004</v>
+        <v>8778.929712142271</v>
       </c>
       <c r="D131">
-        <v>2916.80618674642</v>
+        <v>211386.0611756817</v>
       </c>
       <c r="E131">
-        <v>6924.99610875609</v>
+        <v>475591.2521331062</v>
       </c>
       <c r="F131">
-        <v>188.337320677799</v>
+        <v>1748.637302214447</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>367.2</v>
+        <v>413.8</v>
       </c>
       <c r="B132">
-        <v>229424.7115274837</v>
+        <v>1757909.83648567</v>
       </c>
       <c r="C132">
-        <v>16436.49566829217</v>
+        <v>11122.39012882567</v>
       </c>
       <c r="D132">
-        <v>4327.973981835879</v>
+        <v>269540.4756489723</v>
       </c>
       <c r="E132">
-        <v>9554.241070472926</v>
+        <v>882241.2261833651</v>
       </c>
       <c r="F132">
-        <v>893.313097109379</v>
+        <v>2066.918895534944</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>369.8</v>
+        <v>416.4</v>
       </c>
       <c r="B133">
-        <v>231563.8367592888</v>
+        <v>2871290.004040312</v>
       </c>
       <c r="C133">
-        <v>14321.23541861719</v>
+        <v>12978.91059985911</v>
       </c>
       <c r="D133">
-        <v>3411.033228458742</v>
+        <v>329071.5528796487</v>
       </c>
       <c r="E133">
-        <v>10933.82233154414</v>
+        <v>1187344.240327136</v>
       </c>
       <c r="F133">
-        <v>490.2422356842062</v>
+        <v>2107.585044505934</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>371.7</v>
+        <v>418.3</v>
       </c>
       <c r="B134">
-        <v>229646.2744286848</v>
+        <v>3175594.741868705</v>
       </c>
       <c r="C134">
-        <v>15505.46831308546</v>
+        <v>12668.29094407582</v>
       </c>
       <c r="D134">
-        <v>5286.345754836992</v>
+        <v>340520.4170097584</v>
       </c>
       <c r="E134">
-        <v>13659.28556078848</v>
+        <v>603736.8275860454</v>
       </c>
       <c r="F134">
-        <v>492.6135292581198</v>
+        <v>1772.687230292428</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>374.3</v>
+        <v>420.9</v>
       </c>
       <c r="B135">
-        <v>234385.3996604899</v>
+        <v>1992874.909423347</v>
       </c>
       <c r="C135">
-        <v>13390.20806341048</v>
+        <v>14994.81141510924</v>
       </c>
       <c r="D135">
-        <v>8079.40500145984</v>
+        <v>350561.4942404347</v>
       </c>
       <c r="E135">
-        <v>16188.86682185969</v>
+        <v>398569.841729816</v>
       </c>
       <c r="F135">
-        <v>659.5426678329507</v>
+        <v>1203.353379263421</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>376.6</v>
+        <v>423.2</v>
       </c>
       <c r="B136">
-        <v>244543.0873655481</v>
+        <v>1447522.749952453</v>
       </c>
       <c r="C136">
-        <v>13619.01630408261</v>
+        <v>10738.27183179266</v>
       </c>
       <c r="D136">
-        <v>7230.572796549299</v>
+        <v>360325.9087137254</v>
       </c>
       <c r="E136">
-        <v>19848.11178357654</v>
+        <v>307579.8157800749</v>
       </c>
       <c r="F136">
-        <v>614.5184442645289</v>
+        <v>911.6349725839145</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>378.9</v>
+        <v>425.4</v>
       </c>
       <c r="B137">
-        <v>266600.7750706064</v>
+        <v>1242059.814806382</v>
       </c>
       <c r="C137">
-        <v>15497.82454475475</v>
+        <v>12330.7122303594</v>
       </c>
       <c r="D137">
-        <v>10031.74059163876</v>
+        <v>369351.4356012208</v>
       </c>
       <c r="E137">
-        <v>22847.35674529337</v>
+        <v>228925.4431324964</v>
       </c>
       <c r="F137">
-        <v>699.4942206961073</v>
+        <v>1239.121714020909</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>381.4</v>
+        <v>428</v>
       </c>
       <c r="B138">
-        <v>269846.0877934959</v>
+        <v>1041439.982361025</v>
       </c>
       <c r="C138">
-        <v>14373.9204585288</v>
+        <v>12757.23270139282</v>
       </c>
       <c r="D138">
-        <v>13790.83602108383</v>
+        <v>370672.5128318971</v>
       </c>
       <c r="E138">
-        <v>27983.49257324646</v>
+        <v>159798.4572762671</v>
       </c>
       <c r="F138">
-        <v>315.7722385565189</v>
+        <v>879.7878629919019</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>383.7</v>
+        <v>430.3</v>
       </c>
       <c r="B139">
-        <v>270703.7754985542</v>
+        <v>835287.8228901312</v>
       </c>
       <c r="C139">
-        <v>11962.72869920094</v>
+        <v>10580.69311807621</v>
       </c>
       <c r="D139">
-        <v>15532.00381617328</v>
+        <v>370826.9273051878</v>
       </c>
       <c r="E139">
-        <v>33812.73753496331</v>
+        <v>113238.431326526</v>
       </c>
       <c r="F139">
-        <v>560.7480149880989</v>
+        <v>808.0694563123952</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>386</v>
+        <v>432.5</v>
       </c>
       <c r="B140">
-        <v>310561.4632036124</v>
+        <v>701324.8877440593</v>
       </c>
       <c r="C140">
-        <v>14071.53693987307</v>
+        <v>10643.13351664296</v>
       </c>
       <c r="D140">
-        <v>19283.17161126274</v>
+        <v>356032.4541926832</v>
       </c>
       <c r="E140">
-        <v>42361.98249668014</v>
+        <v>89894.05867894742</v>
       </c>
       <c r="F140">
-        <v>1035.723791419679</v>
+        <v>595.5561977493899</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>388.2</v>
+        <v>434.7</v>
       </c>
       <c r="B141">
-        <v>327625.3383997551</v>
+        <v>619061.9525979875</v>
       </c>
       <c r="C141">
-        <v>12961.70134399423</v>
+        <v>9125.573915209698</v>
       </c>
       <c r="D141">
-        <v>23260.37558917439</v>
+        <v>345967.9810801785</v>
       </c>
       <c r="E141">
-        <v>51517.78202527884</v>
+        <v>75889.68603136891</v>
       </c>
       <c r="F141">
-        <v>370.0484471368416</v>
+        <v>843.0429391863845</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>390.5</v>
+        <v>437</v>
       </c>
       <c r="B142">
-        <v>345483.0261048135</v>
+        <v>573909.7931270943</v>
       </c>
       <c r="C142">
-        <v>13790.50958466636</v>
+        <v>8969.034331893094</v>
       </c>
       <c r="D142">
-        <v>28701.54338426384</v>
+        <v>319132.3955534691</v>
       </c>
       <c r="E142">
-        <v>59697.02698699568</v>
+        <v>68179.66008162768</v>
       </c>
       <c r="F142">
-        <v>675.0242235684216</v>
+        <v>531.3245325068779</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>392.8</v>
+        <v>439.2</v>
       </c>
       <c r="B143">
-        <v>389340.7138098718</v>
+        <v>517246.8579810224</v>
       </c>
       <c r="C143">
-        <v>13019.31782533849</v>
+        <v>9391.47473045985</v>
       </c>
       <c r="D143">
-        <v>35302.71117935329</v>
+        <v>300067.9224409646</v>
       </c>
       <c r="E143">
-        <v>71946.27194871253</v>
+        <v>62535.28743404915</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>738.8112739438725</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>395.4</v>
+        <v>441.5</v>
       </c>
       <c r="B144">
-        <v>443579.8390416769</v>
+        <v>493094.6985101293</v>
       </c>
       <c r="C144">
-        <v>15624.05757566351</v>
+        <v>11354.93514714325</v>
       </c>
       <c r="D144">
-        <v>44735.77042597614</v>
+        <v>276662.3369142552</v>
       </c>
       <c r="E144">
-        <v>91275.85320978373</v>
+        <v>54895.26148430796</v>
       </c>
       <c r="F144">
-        <v>916.9291385748311</v>
+        <v>757.0928672643654</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>397.6</v>
+        <v>444.1</v>
       </c>
       <c r="B145">
-        <v>503743.7142378196</v>
+        <v>467574.8660647717</v>
       </c>
       <c r="C145">
-        <v>15514.22197978466</v>
+        <v>9431.455618176664</v>
       </c>
       <c r="D145">
-        <v>52132.97440388779</v>
+        <v>255983.4141449316</v>
       </c>
       <c r="E145">
-        <v>113381.6527383824</v>
+        <v>53438.27562807879</v>
       </c>
       <c r="F145">
-        <v>461.2537942919932</v>
+        <v>387.7590162353581</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>399.9</v>
+        <v>446.3</v>
       </c>
       <c r="B146">
-        <v>566701.4019428779</v>
+        <v>439611.9309187</v>
       </c>
       <c r="C146">
-        <v>12743.03022045682</v>
+        <v>11463.89601674341</v>
       </c>
       <c r="D146">
-        <v>64944.14219897728</v>
+        <v>224278.941032427</v>
       </c>
       <c r="E146">
-        <v>142800.8977000993</v>
+        <v>48243.90298050025</v>
       </c>
       <c r="F146">
-        <v>756.2295707235719</v>
+        <v>465.2457576723527</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>402.2</v>
+        <v>448.6</v>
       </c>
       <c r="B147">
-        <v>675459.0896479363</v>
+        <v>404059.7714478067</v>
       </c>
       <c r="C147">
-        <v>11671.83846112894</v>
+        <v>11927.35643342682</v>
       </c>
       <c r="D147">
-        <v>80655.3099940667</v>
+        <v>205193.3555057176</v>
       </c>
       <c r="E147">
-        <v>186390.1426618161</v>
+        <v>46363.87703075905</v>
       </c>
       <c r="F147">
-        <v>951.2053471551519</v>
+        <v>403.5273509928461</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>404.8</v>
+        <v>450.8</v>
       </c>
       <c r="B148">
-        <v>811498.2148797412</v>
+        <v>385596.8363017349</v>
       </c>
       <c r="C148">
-        <v>15286.57821145395</v>
+        <v>8999.796831993546</v>
       </c>
       <c r="D148">
-        <v>102338.3692406896</v>
+        <v>175688.882393213</v>
       </c>
       <c r="E148">
-        <v>238399.7239228874</v>
+        <v>41559.50438318052</v>
       </c>
       <c r="F148">
-        <v>1198.134485729981</v>
+        <v>541.0140924298407</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>407</v>
+        <v>453.4</v>
       </c>
       <c r="B149">
-        <v>979762.090075884</v>
+        <v>359377.0038563774</v>
       </c>
       <c r="C149">
-        <v>13806.74261557512</v>
+        <v>9606.317303026965</v>
       </c>
       <c r="D149">
-        <v>126065.5732186012</v>
+        <v>162039.9596238894</v>
       </c>
       <c r="E149">
-        <v>285325.5234514861</v>
+        <v>40082.51852695135</v>
       </c>
       <c r="F149">
-        <v>952.4591414471436</v>
+        <v>501.6802414008339</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>409.3</v>
+        <v>455.7</v>
       </c>
       <c r="B150">
-        <v>1138019.777780942</v>
+        <v>334824.8443854841</v>
       </c>
       <c r="C150">
-        <v>11115.55085624725</v>
+        <v>6859.777719710379</v>
       </c>
       <c r="D150">
-        <v>155496.7410136907</v>
+        <v>145604.37409718</v>
       </c>
       <c r="E150">
-        <v>347274.7684132029</v>
+        <v>34692.49257721014</v>
       </c>
       <c r="F150">
-        <v>927.4349178787236</v>
+        <v>569.9618347213268</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>411.5</v>
+        <v>457.6</v>
       </c>
       <c r="B151">
-        <v>1304083.652977085</v>
+        <v>330029.5822138767</v>
       </c>
       <c r="C151">
-        <v>13275.71526036841</v>
+        <v>8609.158063927098</v>
       </c>
       <c r="D151">
-        <v>182773.9449916023</v>
+        <v>133983.2382272897</v>
       </c>
       <c r="E151">
-        <v>476200.5679418016</v>
+        <v>33785.07983611958</v>
       </c>
       <c r="F151">
-        <v>1721.759573595884</v>
+        <v>885.0640205078221</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>413.8</v>
+        <v>460.2</v>
       </c>
       <c r="B152">
-        <v>1733241.340682143</v>
+        <v>291909.749768519</v>
       </c>
       <c r="C152">
-        <v>15564.52350104055</v>
+        <v>8165.678534960516</v>
       </c>
       <c r="D152">
-        <v>240355.1127866918</v>
+        <v>128344.315457966</v>
       </c>
       <c r="E152">
-        <v>882829.8129035186</v>
+        <v>30778.09397989041</v>
       </c>
       <c r="F152">
-        <v>2036.735350027464</v>
+        <v>505.7301694788111</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>416.4</v>
+        <v>462.5</v>
       </c>
       <c r="B153">
-        <v>2846180.465913949</v>
+        <v>274457.5902976259</v>
       </c>
       <c r="C153">
-        <v>17359.26325136558</v>
+        <v>2589.13895164393</v>
       </c>
       <c r="D153">
-        <v>299238.1720333147</v>
+        <v>121268.7299312567</v>
       </c>
       <c r="E153">
-        <v>1187909.394164589</v>
+        <v>27818.06803014921</v>
       </c>
       <c r="F153">
-        <v>2073.664488602292</v>
+        <v>484.0117627993081</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>418.3</v>
+        <v>464.8</v>
       </c>
       <c r="B154">
-        <v>3150162.903583345</v>
+        <v>267905.4308267326</v>
       </c>
       <c r="C154">
-        <v>17003.49614583384</v>
+        <v>10632.59936832734</v>
       </c>
       <c r="D154">
-        <v>310213.4845596928</v>
+        <v>119653.1444045473</v>
       </c>
       <c r="E154">
-        <v>604284.8573938342</v>
+        <v>28518.04208040801</v>
       </c>
       <c r="F154">
-        <v>1736.035782176209</v>
+        <v>632.293356119801</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>420.9</v>
+        <v>467</v>
       </c>
       <c r="B155">
-        <v>1967002.028815149</v>
+        <v>248242.4956806608</v>
       </c>
       <c r="C155">
-        <v>19268.23589615887</v>
+        <v>6645.039766894086</v>
       </c>
       <c r="D155">
-        <v>319606.5438063157</v>
+        <v>116008.6712920427</v>
       </c>
       <c r="E155">
-        <v>399094.4386549052</v>
+        <v>25203.66943282947</v>
       </c>
       <c r="F155">
-        <v>1162.964920751036</v>
+        <v>329.7800975567961</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>423.2</v>
+        <v>469.6</v>
       </c>
       <c r="B156">
-        <v>1421259.716520207</v>
+        <v>243922.6632353033</v>
       </c>
       <c r="C156">
-        <v>14957.04413683099</v>
+        <v>7081.560237927486</v>
       </c>
       <c r="D156">
-        <v>328797.7116014052</v>
+        <v>113339.7485227191</v>
       </c>
       <c r="E156">
-        <v>308083.683616622</v>
+        <v>26116.6835766003</v>
       </c>
       <c r="F156">
-        <v>867.9406971826163</v>
+        <v>820.4462465277884</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>425.4</v>
+        <v>471.9</v>
       </c>
       <c r="B157">
-        <v>1215423.591716351</v>
+        <v>240670.50376441</v>
       </c>
       <c r="C157">
-        <v>16497.20854095217</v>
+        <v>6205.020654610918</v>
       </c>
       <c r="D157">
-        <v>337274.9155793168</v>
+        <v>110874.1629960097</v>
       </c>
       <c r="E157">
-        <v>229409.4831452208</v>
+        <v>23146.6576268591</v>
       </c>
       <c r="F157">
-        <v>1192.265352899777</v>
+        <v>1128.727839848282</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>428</v>
+        <v>474.2</v>
       </c>
       <c r="B158">
-        <v>1014362.716948156</v>
+        <v>216918.3442935167</v>
       </c>
       <c r="C158">
-        <v>16861.94829127718</v>
+        <v>7688.481071294314</v>
       </c>
       <c r="D158">
-        <v>337947.9748259396</v>
+        <v>109548.5774693003</v>
       </c>
       <c r="E158">
-        <v>160259.064406292</v>
+        <v>21756.6316771179</v>
       </c>
       <c r="F158">
-        <v>829.194491474608</v>
+        <v>877.0094331687751</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>430.3</v>
+        <v>476.4</v>
       </c>
       <c r="B159">
-        <v>807820.4046532138</v>
+        <v>214555.4091474451</v>
       </c>
       <c r="C159">
-        <v>14630.75653194931</v>
+        <v>3180.921469861056</v>
       </c>
       <c r="D159">
-        <v>337529.1426210292</v>
+        <v>105044.1043567957</v>
       </c>
       <c r="E159">
-        <v>113678.3093680088</v>
+        <v>20752.25902953936</v>
       </c>
       <c r="F159">
-        <v>754.170267906188</v>
+        <v>504.4961746057661</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>432.5</v>
+        <v>478.7</v>
       </c>
       <c r="B160">
-        <v>673484.2798493566</v>
+        <v>210703.2496765518</v>
       </c>
       <c r="C160">
-        <v>14640.92093607047</v>
+        <v>9774.38188654447</v>
       </c>
       <c r="D160">
-        <v>322186.3465989407</v>
+        <v>105898.5188300863</v>
       </c>
       <c r="E160">
-        <v>90314.10889660755</v>
+        <v>19872.23307979817</v>
       </c>
       <c r="F160">
-        <v>538.4949236233488</v>
+        <v>442.7777679262631</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>434.7</v>
+        <v>481.3</v>
       </c>
       <c r="B161">
-        <v>590848.1550454992</v>
+        <v>210383.4172311943</v>
       </c>
       <c r="C161">
-        <v>13071.08534019165</v>
+        <v>6630.902357577888</v>
       </c>
       <c r="D161">
-        <v>311573.5505768524</v>
+        <v>104239.5960607627</v>
       </c>
       <c r="E161">
-        <v>76289.90842520626</v>
+        <v>18705.24722356899</v>
       </c>
       <c r="F161">
-        <v>782.8195793405132</v>
+        <v>223.4439168972558</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>437</v>
+        <v>483.5</v>
       </c>
       <c r="B162">
-        <v>545305.8427505575</v>
+        <v>207720.4820851224</v>
       </c>
       <c r="C162">
-        <v>12859.89358086378</v>
+        <v>7223.342756144611</v>
       </c>
       <c r="D162">
-        <v>284164.7183719418</v>
+        <v>103855.1229482581</v>
       </c>
       <c r="E162">
-        <v>68559.15338692311</v>
+        <v>17300.87457599045</v>
       </c>
       <c r="F162">
-        <v>467.7953557720934</v>
+        <v>880.9306583342504</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>439.2</v>
+        <v>485.8</v>
       </c>
       <c r="B163">
-        <v>488269.7179467002</v>
+        <v>197068.3226142292</v>
       </c>
       <c r="C163">
-        <v>13230.05798498494</v>
+        <v>11456.80317282803</v>
       </c>
       <c r="D163">
-        <v>264551.9223498536</v>
+        <v>103379.5374215487</v>
       </c>
       <c r="E163">
-        <v>62894.95291552182</v>
+        <v>17490.84862624926</v>
       </c>
       <c r="F163">
-        <v>672.120011489254</v>
+        <v>679.2122516547438</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>441.5</v>
+        <v>488</v>
       </c>
       <c r="B164">
-        <v>463727.4056517584</v>
+        <v>187705.3874681574</v>
       </c>
       <c r="C164">
-        <v>15138.86622565707</v>
+        <v>8829.243571394767</v>
       </c>
       <c r="D164">
-        <v>240573.090144943</v>
+        <v>101505.0643090441</v>
       </c>
       <c r="E164">
-        <v>55234.19787723866</v>
+        <v>15356.47597867072</v>
       </c>
       <c r="F164">
-        <v>687.095787920834</v>
+        <v>746.6989930917348</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>444.1</v>
+        <v>490.3</v>
       </c>
       <c r="B165">
-        <v>437766.5308835634</v>
+        <v>179553.2279972641</v>
       </c>
       <c r="C165">
-        <v>13153.60597598209</v>
+        <v>6742.703988078167</v>
       </c>
       <c r="D165">
-        <v>219246.1493915659</v>
+        <v>97829.47878233476</v>
       </c>
       <c r="E165">
-        <v>53753.77913830987</v>
+        <v>15906.45002892952</v>
       </c>
       <c r="F165">
-        <v>314.0249264956628</v>
+        <v>384.9805864122277</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>446.3</v>
+        <v>492.6</v>
       </c>
       <c r="B166">
-        <v>409430.4060797062</v>
+        <v>171101.0685263709</v>
       </c>
       <c r="C166">
-        <v>15133.77038010325</v>
+        <v>7516.164404761577</v>
       </c>
       <c r="D166">
-        <v>186993.3533694776</v>
+        <v>99993.8932556254</v>
       </c>
       <c r="E166">
-        <v>48539.57866690859</v>
+        <v>14296.42407918832</v>
       </c>
       <c r="F166">
-        <v>388.3495822128257</v>
+        <v>753.2621797327247</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>448.6</v>
+        <v>494.8</v>
       </c>
       <c r="B167">
-        <v>373488.0937847645</v>
+        <v>163738.1333802991</v>
       </c>
       <c r="C167">
-        <v>15542.57862077538</v>
+        <v>6328.604803328319</v>
       </c>
       <c r="D167">
-        <v>167334.521164567</v>
+        <v>95519.42014312079</v>
       </c>
       <c r="E167">
-        <v>46638.82362862543</v>
+        <v>12682.05143160979</v>
       </c>
       <c r="F167">
-        <v>323.3253586444057</v>
+        <v>1080.748921169719</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>450.8</v>
+        <v>497.4</v>
       </c>
       <c r="B168">
-        <v>354651.9689809072</v>
+        <v>158818.3009349416</v>
       </c>
       <c r="C168">
-        <v>12562.74302489656</v>
+        <v>7115.125274361741</v>
       </c>
       <c r="D168">
-        <v>137281.7251424787</v>
+        <v>95510.49737379716</v>
       </c>
       <c r="E168">
-        <v>41814.62315722415</v>
+        <v>11415.06557538062</v>
       </c>
       <c r="F168">
-        <v>457.6500143615681</v>
+        <v>551.4150701407088</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>453.4</v>
+        <v>499.7</v>
       </c>
       <c r="B169">
-        <v>327991.0942127123</v>
+        <v>144866.1414640484</v>
       </c>
       <c r="C169">
-        <v>13107.48277522159</v>
+        <v>6108.585691045137</v>
       </c>
       <c r="D169">
-        <v>122984.7843891015</v>
+        <v>92224.91184708777</v>
       </c>
       <c r="E169">
-        <v>40314.20441829535</v>
+        <v>11465.03962563942</v>
       </c>
       <c r="F169">
-        <v>414.5791529363978</v>
+        <v>699.6966634612054</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>455.7</v>
+        <v>501.9</v>
       </c>
       <c r="B170">
-        <v>303048.7819177707</v>
+        <v>138803.2063179766</v>
       </c>
       <c r="C170">
-        <v>10306.29101589372</v>
+        <v>5031.026089611893</v>
       </c>
       <c r="D170">
-        <v>105975.952184191</v>
+        <v>92140.43873458319</v>
       </c>
       <c r="E170">
-        <v>34903.44938001221</v>
+        <v>10360.66697806088</v>
       </c>
       <c r="F170">
-        <v>479.5549293679778</v>
+        <v>407.1834048981968</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>457.6</v>
+        <v>504.2</v>
       </c>
       <c r="B171">
-        <v>297931.2195871666</v>
+        <v>135851.0468470833</v>
       </c>
       <c r="C171">
-        <v>12010.52391036198</v>
+        <v>8524.486506295292</v>
       </c>
       <c r="D171">
-        <v>93881.26471056924</v>
+        <v>92244.85320787381</v>
       </c>
       <c r="E171">
-        <v>33978.91260925655</v>
+        <v>10090.64102831968</v>
       </c>
       <c r="F171">
-        <v>791.926222941891</v>
+        <v>485.4649982186897</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>460.2</v>
+        <v>506.5</v>
       </c>
       <c r="B172">
-        <v>259370.3448189716</v>
+        <v>134298.8873761901</v>
       </c>
       <c r="C172">
-        <v>11505.26366068701</v>
+        <v>6597.946922978703</v>
       </c>
       <c r="D172">
-        <v>87594.32395719209</v>
+        <v>90119.26768116445</v>
       </c>
       <c r="E172">
-        <v>30948.49387032777</v>
+        <v>8970.615078578492</v>
       </c>
       <c r="F172">
-        <v>408.8553615167184</v>
+        <v>933.7465915391831</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>462.5</v>
+        <v>508.7</v>
       </c>
       <c r="B173">
-        <v>241528.0325240299</v>
+        <v>120735.9522301183</v>
       </c>
       <c r="C173">
-        <v>5874.071901359133</v>
+        <v>6520.387321545444</v>
       </c>
       <c r="D173">
-        <v>79945.49175228154</v>
+        <v>89094.79456865984</v>
       </c>
       <c r="E173">
-        <v>27967.73883204461</v>
+        <v>8516.242430999955</v>
       </c>
       <c r="F173">
-        <v>383.8311379482984</v>
+        <v>791.2333329761777</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>464.8</v>
+        <v>511.3</v>
       </c>
       <c r="B174">
-        <v>234585.7202290883</v>
+        <v>123416.1197847607</v>
       </c>
       <c r="C174">
-        <v>13862.88014203126</v>
+        <v>4676.907792578862</v>
       </c>
       <c r="D174">
-        <v>77756.659547371</v>
+        <v>88005.87179933624</v>
       </c>
       <c r="E174">
-        <v>28646.98379376144</v>
+        <v>8999.256574770769</v>
       </c>
       <c r="F174">
-        <v>528.8069143798784</v>
+        <v>221.8994819471741</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>467</v>
+        <v>513.5</v>
       </c>
       <c r="B175">
-        <v>214549.595425231</v>
+        <v>103053.184638689</v>
       </c>
       <c r="C175">
-        <v>9823.04454615244</v>
+        <v>8299.348191145589</v>
       </c>
       <c r="D175">
-        <v>73563.86352528265</v>
+        <v>87141.39868683161</v>
       </c>
       <c r="E175">
-        <v>25312.78332236017</v>
+        <v>8894.883927192232</v>
       </c>
       <c r="F175">
-        <v>223.1315700970413</v>
+        <v>719.3862233841651</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>469.6</v>
+        <v>515.8</v>
       </c>
       <c r="B176">
-        <v>209788.7206570359</v>
+        <v>91401.02516779568</v>
       </c>
       <c r="C176">
-        <v>10197.78429647745</v>
+        <v>5512.808607829018</v>
       </c>
       <c r="D176">
-        <v>70246.92277190553</v>
+        <v>88395.81316012226</v>
       </c>
       <c r="E176">
-        <v>26202.36458343137</v>
+        <v>6904.85797745104</v>
       </c>
       <c r="F176">
-        <v>710.0607086718701</v>
+        <v>577.6678167046584</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>471.9</v>
+        <v>518</v>
       </c>
       <c r="B177">
-        <v>206146.4083620943</v>
+        <v>94138.09002172388</v>
       </c>
       <c r="C177">
-        <v>9266.592537149594</v>
+        <v>6205.249006395741</v>
       </c>
       <c r="D177">
-        <v>67208.09056699499</v>
+        <v>83901.34004761763</v>
       </c>
       <c r="E177">
-        <v>23211.60954514822</v>
+        <v>6830.485329872505</v>
       </c>
       <c r="F177">
-        <v>1015.036485103447</v>
+        <v>395.1545581416531</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>474.2</v>
+        <v>520.6</v>
       </c>
       <c r="B178">
-        <v>182004.0960671526</v>
+        <v>91318.25757636636</v>
       </c>
       <c r="C178">
-        <v>10695.40077782172</v>
+        <v>6871.769477429159</v>
       </c>
       <c r="D178">
-        <v>65309.25836208444</v>
+        <v>81282.417278294</v>
       </c>
       <c r="E178">
-        <v>21800.85450686505</v>
+        <v>6963.499473643324</v>
       </c>
       <c r="F178">
-        <v>760.0122615350288</v>
+        <v>785.8207071126453</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>476.4</v>
+        <v>522.9</v>
       </c>
       <c r="B179">
-        <v>179267.9712632953</v>
+        <v>86266.09810547309</v>
       </c>
       <c r="C179">
-        <v>6135.565181942886</v>
+        <v>3325.229894112577</v>
       </c>
       <c r="D179">
-        <v>60256.46233999609</v>
+        <v>80906.83175158466</v>
       </c>
       <c r="E179">
-        <v>20776.65403546377</v>
+        <v>5443.473523902127</v>
       </c>
       <c r="F179">
-        <v>384.3369172521911</v>
+        <v>624.1023004331391</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>478.7</v>
+        <v>525.1</v>
       </c>
       <c r="B180">
-        <v>175025.6589683537</v>
+        <v>81603.16295940129</v>
       </c>
       <c r="C180">
-        <v>12674.37342261501</v>
+        <v>2137.6702926793</v>
       </c>
       <c r="D180">
-        <v>60537.63013508554</v>
+        <v>78722.35863908003</v>
       </c>
       <c r="E180">
-        <v>19875.89899718061</v>
+        <v>6189.10087632359</v>
       </c>
       <c r="F180">
-        <v>319.3126936837712</v>
+        <v>561.5890418701333</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>481.3</v>
+        <v>527.4</v>
       </c>
       <c r="B181">
-        <v>174264.7842001586</v>
+        <v>81351.00348850813</v>
       </c>
       <c r="C181">
-        <v>9469.113172940037</v>
+        <v>4471.130709362718</v>
       </c>
       <c r="D181">
-        <v>58230.68938170839</v>
+        <v>77206.77311237066</v>
       </c>
       <c r="E181">
-        <v>18685.48025825182</v>
+        <v>4839.074926582398</v>
       </c>
       <c r="F181">
-        <v>96.24183225859861</v>
+        <v>319.8706351906271</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>483.5</v>
+        <v>529.6</v>
       </c>
       <c r="B182">
-        <v>171228.6593963013</v>
+        <v>75988.06834243631</v>
       </c>
       <c r="C182">
-        <v>10009.2775770612</v>
+        <v>1223.571107929449</v>
       </c>
       <c r="D182">
-        <v>57297.89335962004</v>
+        <v>79812.29999986607</v>
       </c>
       <c r="E182">
-        <v>17261.27978685054</v>
+        <v>4674.702279003861</v>
       </c>
       <c r="F182">
-        <v>750.5664879757628</v>
+        <v>857.3573766276213</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>485.8</v>
+        <v>531.9</v>
       </c>
       <c r="B183">
-        <v>160186.3471013597</v>
+        <v>80335.90887154304</v>
       </c>
       <c r="C183">
-        <v>14188.08581773333</v>
+        <v>5127.031524612867</v>
       </c>
       <c r="D183">
-        <v>56249.0611547095</v>
+        <v>78866.71447315668</v>
       </c>
       <c r="E183">
-        <v>17430.52474856737</v>
+        <v>4794.676329262662</v>
       </c>
       <c r="F183">
-        <v>545.5422644073428</v>
+        <v>645.6389699481151</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>488</v>
+        <v>534.5</v>
       </c>
       <c r="B184">
-        <v>150450.2222975024</v>
+        <v>78716.07642618552</v>
       </c>
       <c r="C184">
-        <v>11508.25022185451</v>
+        <v>4013.551995646289</v>
       </c>
       <c r="D184">
-        <v>53826.26513262117</v>
+        <v>77697.79170383308</v>
       </c>
       <c r="E184">
-        <v>15276.3242771661</v>
+        <v>4727.690473033483</v>
       </c>
       <c r="F184">
-        <v>609.8669201245038</v>
+        <v>826.3051189191074</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>490.3</v>
+        <v>536.7</v>
       </c>
       <c r="B185">
-        <v>141907.9100025607</v>
+        <v>77653.14128011372</v>
       </c>
       <c r="C185">
-        <v>9367.058462526631</v>
+        <v>4735.992394213012</v>
       </c>
       <c r="D185">
-        <v>49577.43292771062</v>
+        <v>75843.31859132845</v>
       </c>
       <c r="E185">
-        <v>15805.56923888293</v>
+        <v>4753.317825454946</v>
       </c>
       <c r="F185">
-        <v>244.8426965560839</v>
+        <v>783.791860356102</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>492.6</v>
+        <v>539</v>
       </c>
       <c r="B186">
-        <v>133065.5977076191</v>
+        <v>68600.98180922045</v>
       </c>
       <c r="C186">
-        <v>10085.86670319876</v>
+        <v>4569.452810896422</v>
       </c>
       <c r="D186">
-        <v>51168.60072280007</v>
+        <v>74027.73306461911</v>
       </c>
       <c r="E186">
-        <v>14174.81420059977</v>
+        <v>3373.291875713755</v>
       </c>
       <c r="F186">
-        <v>609.8184729876639</v>
+        <v>532.0734536765954</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>494.8</v>
+        <v>541.2</v>
       </c>
       <c r="B187">
-        <v>125329.4729037618</v>
+        <v>71238.04666314863</v>
       </c>
       <c r="C187">
-        <v>8846.031107319923</v>
+        <v>4931.89320946316</v>
       </c>
       <c r="D187">
-        <v>46145.80470071173</v>
+        <v>74243.25995211449</v>
       </c>
       <c r="E187">
-        <v>12540.61372919849</v>
+        <v>3468.919228135211</v>
       </c>
       <c r="F187">
-        <v>934.1431287048244</v>
+        <v>539.56019511359</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>497.4</v>
+        <v>543.5</v>
       </c>
       <c r="B188">
-        <v>119968.5981355667</v>
+        <v>67685.88719225547</v>
       </c>
       <c r="C188">
-        <v>9570.770857644951</v>
+        <v>4225.353626146578</v>
       </c>
       <c r="D188">
-        <v>45488.86394733458</v>
+        <v>74577.67442540512</v>
       </c>
       <c r="E188">
-        <v>11250.19499026971</v>
+        <v>4748.893278394013</v>
       </c>
       <c r="F188">
-        <v>401.0722672796555</v>
+        <v>957.8417884340834</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>499.7</v>
+        <v>545.8</v>
       </c>
       <c r="B189">
-        <v>105626.2858406251</v>
+        <v>70933.7277213622</v>
       </c>
       <c r="C189">
-        <v>8509.579098317077</v>
+        <v>4058.814042829996</v>
       </c>
       <c r="D189">
-        <v>41630.03174242403</v>
+        <v>73422.08889869576</v>
       </c>
       <c r="E189">
-        <v>11279.43995198654</v>
+        <v>3738.867328652821</v>
       </c>
       <c r="F189">
-        <v>546.048043711236</v>
+        <v>606.1233817545767</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>501.9</v>
+        <v>548.3</v>
       </c>
       <c r="B190">
-        <v>99190.16103676782</v>
+        <v>65903.11960082603</v>
       </c>
       <c r="C190">
-        <v>7379.743502438254</v>
+        <v>4894.314495746738</v>
       </c>
       <c r="D190">
-        <v>40997.23572033568</v>
+        <v>72734.27854357686</v>
       </c>
       <c r="E190">
-        <v>10155.23948058526</v>
+        <v>4027.534774586304</v>
       </c>
       <c r="F190">
-        <v>250.3726994283966</v>
+        <v>735.9946788420712</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>504.2</v>
+        <v>550.6</v>
       </c>
       <c r="B191">
-        <v>95847.84874182614</v>
+        <v>59450.96012993288</v>
       </c>
       <c r="C191">
-        <v>10818.55174311038</v>
+        <v>2787.774912430134</v>
       </c>
       <c r="D191">
-        <v>40528.40351542514</v>
+        <v>72258.6930168675</v>
       </c>
       <c r="E191">
-        <v>9864.484442302099</v>
+        <v>3687.508824845105</v>
       </c>
       <c r="F191">
-        <v>325.3484758599766</v>
+        <v>884.2762721625636</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>506.5</v>
+        <v>552.8</v>
       </c>
       <c r="B192">
-        <v>93905.53644688436</v>
+        <v>56088.02498386105</v>
       </c>
       <c r="C192">
-        <v>8837.35998378251</v>
+        <v>3280.215310996879</v>
       </c>
       <c r="D192">
-        <v>37829.57131051459</v>
+        <v>72604.21990436289</v>
       </c>
       <c r="E192">
-        <v>8723.729404018934</v>
+        <v>3723.136177266576</v>
       </c>
       <c r="F192">
-        <v>770.3242522915566</v>
+        <v>881.7630135995551</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>508.7</v>
+        <v>555.1</v>
       </c>
       <c r="B193">
-        <v>79969.41164302721</v>
+        <v>64635.86551296779</v>
       </c>
       <c r="C193">
-        <v>8707.524387903675</v>
+        <v>2053.675727680275</v>
       </c>
       <c r="D193">
-        <v>36256.77528842627</v>
+        <v>72488.63437765354</v>
       </c>
       <c r="E193">
-        <v>8249.528932617657</v>
+        <v>2413.110227525369</v>
       </c>
       <c r="F193">
-        <v>624.6489080087194</v>
+        <v>720.0446069200516</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>511.3</v>
+        <v>557.7</v>
       </c>
       <c r="B194">
-        <v>82208.53687483216</v>
+        <v>67216.03306761027</v>
       </c>
       <c r="C194">
-        <v>6802.264138228682</v>
+        <v>2480.196198713689</v>
       </c>
       <c r="D194">
-        <v>34519.83453504911</v>
+        <v>73109.71160832993</v>
       </c>
       <c r="E194">
-        <v>8709.110193688863</v>
+        <v>3276.12437129619</v>
       </c>
       <c r="F194">
-        <v>51.57804658354826</v>
+        <v>470.7107558910443</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>513.5</v>
+        <v>559.9</v>
       </c>
       <c r="B195">
-        <v>61472.41207097488</v>
+        <v>65453.09792153846</v>
       </c>
       <c r="C195">
-        <v>10372.42854234986</v>
+        <v>942.6365972804488</v>
       </c>
       <c r="D195">
-        <v>33107.03851296077</v>
+        <v>72625.23849582532</v>
       </c>
       <c r="E195">
-        <v>8584.909722287579</v>
+        <v>3201.751723717661</v>
       </c>
       <c r="F195">
-        <v>545.9027023007129</v>
+        <v>798.1974973280358</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>515.8</v>
+        <v>562.2</v>
       </c>
       <c r="B196">
-        <v>49430.09977603322</v>
+        <v>61800.93845064519</v>
       </c>
       <c r="C196">
-        <v>7531.236783021992</v>
+        <v>3356.097013963845</v>
       </c>
       <c r="D196">
-        <v>33788.20630805023</v>
+        <v>69799.65296911594</v>
       </c>
       <c r="E196">
-        <v>6574.154684004423</v>
+        <v>3451.725773976455</v>
       </c>
       <c r="F196">
-        <v>400.8784787322893</v>
+        <v>1166.479090648532</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>518</v>
+        <v>564.4</v>
       </c>
       <c r="B197">
-        <v>51793.97497217594</v>
+        <v>61138.00330457337</v>
       </c>
       <c r="C197">
-        <v>8171.401187143154</v>
+        <v>5058.53741253059</v>
       </c>
       <c r="D197">
-        <v>28745.41028596187</v>
+        <v>71425.17985661131</v>
       </c>
       <c r="E197">
-        <v>6479.954212603139</v>
+        <v>3197.353126397926</v>
       </c>
       <c r="F197">
-        <v>215.2031344494535</v>
+        <v>603.9658320855237</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>520.6</v>
+        <v>566.7</v>
       </c>
       <c r="B198">
-        <v>48533.100203981</v>
+        <v>68685.84383368022</v>
       </c>
       <c r="C198">
-        <v>8776.140937468175</v>
+        <v>6311.997829213986</v>
       </c>
       <c r="D198">
-        <v>25478.46953258474</v>
+        <v>73189.59432990196</v>
       </c>
       <c r="E198">
-        <v>6589.535473674347</v>
+        <v>3667.327176656726</v>
       </c>
       <c r="F198">
-        <v>602.1322730242823</v>
+        <v>1042.247425406017</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>522.9</v>
+        <v>568.9</v>
       </c>
       <c r="B199">
-        <v>43090.78790903922</v>
+        <v>63522.9086876084</v>
       </c>
       <c r="C199">
-        <v>5174.949178140305</v>
+        <v>3914.438227780745</v>
       </c>
       <c r="D199">
-        <v>24529.6373276742</v>
+        <v>74245.12121739735</v>
       </c>
       <c r="E199">
-        <v>5048.78043539119</v>
+        <v>3982.954529078191</v>
       </c>
       <c r="F199">
-        <v>437.108049455861</v>
+        <v>869.7341668430117</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>525.1</v>
+        <v>571.5</v>
       </c>
       <c r="B200">
-        <v>38054.66310518206</v>
+        <v>76603.07624225089</v>
       </c>
       <c r="C200">
-        <v>3935.113582261467</v>
+        <v>2430.958698814145</v>
       </c>
       <c r="D200">
-        <v>21796.84130558585</v>
+        <v>72946.19844807372</v>
       </c>
       <c r="E200">
-        <v>5774.579963989899</v>
+        <v>2545.968672849011</v>
       </c>
       <c r="F200">
-        <v>371.4327051730252</v>
+        <v>520.400315814004</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>527.4</v>
+        <v>573.7</v>
       </c>
       <c r="B201">
-        <v>37412.35081024028</v>
+        <v>65240.14109617908</v>
       </c>
       <c r="C201">
-        <v>6213.921822933611</v>
+        <v>4413.399097380883</v>
       </c>
       <c r="D201">
-        <v>19708.00910067531</v>
+        <v>73171.72533556912</v>
       </c>
       <c r="E201">
-        <v>4403.824925706749</v>
+        <v>2451.596025270475</v>
       </c>
       <c r="F201">
-        <v>126.4084816046056</v>
+        <v>897.8870572509986</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>529.6</v>
+        <v>576</v>
       </c>
       <c r="B202">
-        <v>31676.226006383</v>
+        <v>60187.9816252858</v>
       </c>
       <c r="C202">
-        <v>2914.086227054773</v>
+        <v>2106.859514064301</v>
       </c>
       <c r="D202">
-        <v>21765.21307858694</v>
+        <v>74326.13980885975</v>
       </c>
       <c r="E202">
-        <v>4219.624454305457</v>
+        <v>2231.570075529276</v>
       </c>
       <c r="F202">
-        <v>660.7331373217662</v>
+        <v>836.168650571492</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>531.9</v>
+        <v>578.2</v>
       </c>
       <c r="B203">
-        <v>35633.91371144134</v>
+        <v>59725.046479214</v>
       </c>
       <c r="C203">
-        <v>6762.894467726903</v>
+        <v>1899.299912631024</v>
       </c>
       <c r="D203">
-        <v>20246.3808736764</v>
+        <v>74231.66669635515</v>
       </c>
       <c r="E203">
-        <v>4318.869416022301</v>
+        <v>1347.19742795074</v>
       </c>
       <c r="F203">
-        <v>445.7089137533462</v>
+        <v>973.6553920084866</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>534.5</v>
+        <v>580.5</v>
       </c>
       <c r="B204">
-        <v>33573.03894324641</v>
+        <v>69372.88700832083</v>
       </c>
       <c r="C204">
-        <v>5587.634218051924</v>
+        <v>4112.760329314449</v>
       </c>
       <c r="D204">
-        <v>18429.44012029926</v>
+        <v>76206.08116964577</v>
       </c>
       <c r="E204">
-        <v>4228.450677093509</v>
+        <v>1377.171478209548</v>
       </c>
       <c r="F204">
-        <v>622.6380523281755</v>
+        <v>891.93698532898</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>536.7</v>
+        <v>582.7</v>
       </c>
       <c r="B205">
-        <v>32136.91413938913</v>
+        <v>67609.95186224903</v>
       </c>
       <c r="C205">
-        <v>6257.798622173072</v>
+        <v>885.2007278811725</v>
       </c>
       <c r="D205">
-        <v>16026.64409821093</v>
+        <v>71281.60805714117</v>
       </c>
       <c r="E205">
-        <v>4234.250205692224</v>
+        <v>1882.798830631011</v>
       </c>
       <c r="F205">
-        <v>576.9627080453379</v>
+        <v>639.4237267659742</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>539</v>
+        <v>585.3</v>
       </c>
       <c r="B206">
-        <v>22694.60184444734</v>
+        <v>66190.11941689139</v>
       </c>
       <c r="C206">
-        <v>6036.606862845216</v>
+        <v>2351.721198914616</v>
       </c>
       <c r="D206">
-        <v>13637.81189330039</v>
+        <v>77072.68528781753</v>
       </c>
       <c r="E206">
-        <v>2833.495167409067</v>
+        <v>2175.812974401833</v>
       </c>
       <c r="F206">
-        <v>321.9384844769179</v>
+        <v>670.0898757369678</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>541.2</v>
+        <v>587.6</v>
       </c>
       <c r="B207">
-        <v>24958.47704059007</v>
+        <v>59737.95994599824</v>
       </c>
       <c r="C207">
-        <v>6346.771266966378</v>
+        <v>1735.181615598012</v>
       </c>
       <c r="D207">
-        <v>13305.01587121203</v>
+        <v>77667.09976110817</v>
       </c>
       <c r="E207">
-        <v>2909.294696007776</v>
+        <v>2995.787024660633</v>
       </c>
       <c r="F207">
-        <v>326.2631401940821</v>
+        <v>798.3714690574607</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>543.5</v>
+        <v>589.8</v>
       </c>
       <c r="B208">
-        <v>21016.1647456484</v>
+        <v>61875.02479992641</v>
       </c>
       <c r="C208">
-        <v>5585.579507638522</v>
+        <v>3567.622014164757</v>
       </c>
       <c r="D208">
-        <v>13066.18366630149</v>
+        <v>77462.62664860356</v>
       </c>
       <c r="E208">
-        <v>4168.539657724627</v>
+        <v>2481.414377082098</v>
       </c>
       <c r="F208">
-        <v>741.2389166256589</v>
+        <v>915.8582104944517</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>545.8</v>
+        <v>592.1</v>
       </c>
       <c r="B209">
-        <v>23873.85245070674</v>
+        <v>69622.86532903316</v>
       </c>
       <c r="C209">
-        <v>5364.387748310652</v>
+        <v>1261.082430848146</v>
       </c>
       <c r="D209">
-        <v>11337.35146139095</v>
+        <v>81447.0411218942</v>
       </c>
       <c r="E209">
-        <v>3137.784619441462</v>
+        <v>2521.388427340905</v>
       </c>
       <c r="F209">
-        <v>386.2146930572389</v>
+        <v>674.1398038149482</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>548.3</v>
+        <v>594.3</v>
       </c>
       <c r="B210">
-        <v>18419.16517359619</v>
+        <v>63459.93018296134</v>
       </c>
       <c r="C210">
-        <v>6140.483662084713</v>
+        <v>3893.522829414906</v>
       </c>
       <c r="D210">
-        <v>10026.44689083599</v>
+        <v>83732.56800938958</v>
       </c>
       <c r="E210">
-        <v>3403.920447394551</v>
+        <v>3167.01577976237</v>
       </c>
       <c r="F210">
-        <v>512.4927109176506</v>
+        <v>871.6265452519433</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>550.6</v>
+        <v>596.8</v>
       </c>
       <c r="B211">
-        <v>11576.85287865453</v>
+        <v>70229.32206242527</v>
       </c>
       <c r="C211">
-        <v>3979.29190275682</v>
+        <v>3299.023282331655</v>
       </c>
       <c r="D211">
-        <v>8977.614685925437</v>
+        <v>81074.75765427071</v>
       </c>
       <c r="E211">
-        <v>3043.165409111386</v>
+        <v>3105.683225695853</v>
       </c>
       <c r="F211">
-        <v>657.4684873492306</v>
+        <v>981.4978423394341</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>552.8</v>
+        <v>599.1</v>
       </c>
       <c r="B212">
-        <v>7840.728074797247</v>
+        <v>77377.162591532</v>
       </c>
       <c r="C212">
-        <v>4419.456306878019</v>
+        <v>3732.483699015051</v>
       </c>
       <c r="D212">
-        <v>8774.818663837119</v>
+        <v>84219.17212756135</v>
       </c>
       <c r="E212">
-        <v>3058.96493771011</v>
+        <v>2395.657275954646</v>
       </c>
       <c r="F212">
-        <v>651.7931430663953</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>555.1</v>
-      </c>
-      <c r="B213">
-        <v>15998.41577985547</v>
-      </c>
-      <c r="C213">
-        <v>3138.264547550127</v>
-      </c>
-      <c r="D213">
-        <v>8085.986458926571</v>
-      </c>
-      <c r="E213">
-        <v>1728.209899426945</v>
-      </c>
-      <c r="F213">
-        <v>486.7689194979748</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>557.7</v>
-      </c>
-      <c r="B214">
-        <v>18137.54101166053</v>
-      </c>
-      <c r="C214">
-        <v>3503.004297875137</v>
-      </c>
-      <c r="D214">
-        <v>8059.045705549419</v>
-      </c>
-      <c r="E214">
-        <v>2567.791160498159</v>
-      </c>
-      <c r="F214">
-        <v>233.6980580728023</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>559.9</v>
-      </c>
-      <c r="B215">
-        <v>16001.41620780326</v>
-      </c>
-      <c r="C215">
-        <v>1913.168701996317</v>
-      </c>
-      <c r="D215">
-        <v>7026.249683461072</v>
-      </c>
-      <c r="E215">
-        <v>2473.590689096876</v>
-      </c>
-      <c r="F215">
-        <v>558.0227137899633</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>562.2</v>
-      </c>
-      <c r="B216">
-        <v>11959.10391286159</v>
-      </c>
-      <c r="C216">
-        <v>4271.976942668443</v>
-      </c>
-      <c r="D216">
-        <v>3627.417478550524</v>
-      </c>
-      <c r="E216">
-        <v>2702.835650813711</v>
-      </c>
-      <c r="F216">
-        <v>922.9984902215465</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>564.4</v>
-      </c>
-      <c r="B217">
-        <v>10922.97910900431</v>
-      </c>
-      <c r="C217">
-        <v>5922.141346789624</v>
-      </c>
-      <c r="D217">
-        <v>4704.621456462177</v>
-      </c>
-      <c r="E217">
-        <v>2428.635179412428</v>
-      </c>
-      <c r="F217">
-        <v>357.3231459387075</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>566.7</v>
-      </c>
-      <c r="B218">
-        <v>18080.66681406265</v>
-      </c>
-      <c r="C218">
-        <v>7120.949587461735</v>
-      </c>
-      <c r="D218">
-        <v>5895.789251551621</v>
-      </c>
-      <c r="E218">
-        <v>2877.880141129271</v>
-      </c>
-      <c r="F218">
-        <v>792.2989223702875</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>568.9</v>
-      </c>
-      <c r="B219">
-        <v>12544.54201020537</v>
-      </c>
-      <c r="C219">
-        <v>4671.113991582915</v>
-      </c>
-      <c r="D219">
-        <v>6402.993229463304</v>
-      </c>
-      <c r="E219">
-        <v>3173.679669727988</v>
-      </c>
-      <c r="F219">
-        <v>616.6235780874522</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>571.5</v>
-      </c>
-      <c r="B220">
-        <v>25183.66724201032</v>
-      </c>
-      <c r="C220">
-        <v>3125.853741907937</v>
-      </c>
-      <c r="D220">
-        <v>4456.052476086152</v>
-      </c>
-      <c r="E220">
-        <v>1713.260930799202</v>
-      </c>
-      <c r="F220">
-        <v>263.5527166622792</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>573.7</v>
-      </c>
-      <c r="B221">
-        <v>13447.54243815304</v>
-      </c>
-      <c r="C221">
-        <v>5056.018146029099</v>
-      </c>
-      <c r="D221">
-        <v>4133.256453997798</v>
-      </c>
-      <c r="E221">
-        <v>1599.060459397911</v>
-      </c>
-      <c r="F221">
-        <v>637.8773723794434</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>576</v>
-      </c>
-      <c r="B222">
-        <v>8005.230143211378</v>
-      </c>
-      <c r="C222">
-        <v>2694.826386701228</v>
-      </c>
-      <c r="D222">
-        <v>4714.424249087257</v>
-      </c>
-      <c r="E222">
-        <v>1358.305421114754</v>
-      </c>
-      <c r="F222">
-        <v>572.8531488110202</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>578.2</v>
-      </c>
-      <c r="B223">
-        <v>7169.105339354097</v>
-      </c>
-      <c r="C223">
-        <v>2434.99079082239</v>
-      </c>
-      <c r="D223">
-        <v>4071.628226998895</v>
-      </c>
-      <c r="E223">
-        <v>454.10494971347</v>
-      </c>
-      <c r="F223">
-        <v>707.1778045281844</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>580.5</v>
-      </c>
-      <c r="B224">
-        <v>16426.79304441244</v>
-      </c>
-      <c r="C224">
-        <v>4593.799031494535</v>
-      </c>
-      <c r="D224">
-        <v>5472.796022088354</v>
-      </c>
-      <c r="E224">
-        <v>463.3499114303131</v>
-      </c>
-      <c r="F224">
-        <v>622.1535809597644</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>582.7</v>
-      </c>
-      <c r="B225">
-        <v>14290.66824055515</v>
-      </c>
-      <c r="C225">
-        <v>1313.963435615697</v>
-      </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225">
-        <v>949.1494400290294</v>
-      </c>
-      <c r="F225">
-        <v>366.4782366769268</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>585.3</v>
-      </c>
-      <c r="B226">
-        <v>12429.79347236022</v>
-      </c>
-      <c r="C226">
-        <v>2718.703185940725</v>
-      </c>
-      <c r="D226">
-        <v>5143.059246622892</v>
-      </c>
-      <c r="E226">
-        <v>1218.730701100245</v>
-      </c>
-      <c r="F226">
-        <v>393.4073752517565</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>587.6</v>
-      </c>
-      <c r="B227">
-        <v>5587.481177418442</v>
-      </c>
-      <c r="C227">
-        <v>2047.511426612848</v>
-      </c>
-      <c r="D227">
-        <v>5164.227041712336</v>
-      </c>
-      <c r="E227">
-        <v>2017.97566281708</v>
-      </c>
-      <c r="F227">
-        <v>518.3831516833361</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>589.8</v>
-      </c>
-      <c r="B228">
-        <v>7351.356373561164</v>
-      </c>
-      <c r="C228">
-        <v>3827.675830734031</v>
-      </c>
-      <c r="D228">
-        <v>4411.431019623989</v>
-      </c>
-      <c r="E228">
-        <v>1483.775191415804</v>
-      </c>
-      <c r="F228">
-        <v>632.7078074004971</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>592.1</v>
-      </c>
-      <c r="B229">
-        <v>14709.0440786195</v>
-      </c>
-      <c r="C229">
-        <v>1466.484071406139</v>
-      </c>
-      <c r="D229">
-        <v>7822.598814713441</v>
-      </c>
-      <c r="E229">
-        <v>1503.020153132638</v>
-      </c>
-      <c r="F229">
-        <v>387.6835838320771</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>594.3</v>
-      </c>
-      <c r="B230">
-        <v>8172.919274762222</v>
-      </c>
-      <c r="C230">
-        <v>4046.64847552732</v>
-      </c>
-      <c r="D230">
-        <v>9559.802792625094</v>
-      </c>
-      <c r="E230">
-        <v>2128.819681731356</v>
-      </c>
-      <c r="F230">
-        <v>582.0082395492382</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>596.8</v>
-      </c>
-      <c r="B231">
-        <v>14518.23199765167</v>
-      </c>
-      <c r="C231">
-        <v>3392.744389301381</v>
-      </c>
-      <c r="D231">
-        <v>6278.898222070166</v>
-      </c>
-      <c r="E231">
-        <v>2044.955509684444</v>
-      </c>
-      <c r="F231">
-        <v>688.2862574096534</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>599.1</v>
-      </c>
-      <c r="B232">
-        <v>21275.91970271001</v>
-      </c>
-      <c r="C232">
-        <v>3771.552629973488</v>
-      </c>
-      <c r="D232">
-        <v>8850.06601715961</v>
-      </c>
-      <c r="E232">
-        <v>1314.200471401279</v>
-      </c>
-      <c r="F232">
-        <v>1113.262033841233</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>601.3</v>
-      </c>
-      <c r="B233">
-        <v>19139.79489885273</v>
-      </c>
-      <c r="C233">
-        <v>1381.717034094672</v>
-      </c>
-      <c r="D233">
-        <v>8457.269995071263</v>
-      </c>
-      <c r="E233">
-        <v>0</v>
-      </c>
-      <c r="F233">
-        <v>437.586689558394</v>
+        <v>1409.779435659927</v>
       </c>
     </row>
   </sheetData>
